--- a/file_checks/dataset_X_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/dataset_X_wrong_genes_correct_pheno.xlsx
@@ -1451,502 +1451,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.117231222385008</v>
+        <v>-0.685619418092694</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.651883163824413</v>
+        <v>0.225946659467814</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.629973656070482</v>
+        <v>-0.00494507607155675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.270775469246828</v>
+        <v>1.07649194687326</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.348797956736701</v>
+        <v>0.761794427237985</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22545825627476</v>
+        <v>-0.907350807052398</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.121210701978425</v>
+        <v>2.50789202600838</v>
       </c>
       <c r="H2" t="n">
-        <v>0.68721532389603</v>
+        <v>-0.708752917405348</v>
       </c>
       <c r="I2" t="n">
-        <v>0.631846811426473</v>
+        <v>0.322458645890836</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.24842160045654</v>
+        <v>-0.128855447558002</v>
       </c>
       <c r="K2" t="n">
-        <v>1.08767659303277</v>
+        <v>0.51569499964805</v>
       </c>
       <c r="L2" t="n">
-        <v>0.86091700984159</v>
+        <v>-0.812102271025522</v>
       </c>
       <c r="M2" t="n">
-        <v>0.417676312261407</v>
+        <v>1.15679755030281</v>
       </c>
       <c r="N2" t="n">
-        <v>0.409509532138898</v>
+        <v>-0.0697731691669274</v>
       </c>
       <c r="O2" t="n">
-        <v>1.00535390971835</v>
+        <v>-1.07012493009609</v>
       </c>
       <c r="P2" t="n">
-        <v>0.707058633141238</v>
+        <v>0.335129320131629</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.254425669766197</v>
+        <v>-0.8133031019203</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.725675883093854</v>
+        <v>-0.547185802856021</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.27675270146216</v>
+        <v>-0.68667202011808</v>
       </c>
       <c r="T2" t="n">
-        <v>0.504109043802699</v>
+        <v>-0.911417401973203</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.375396199003497</v>
+        <v>0.983625234161184</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.01957755645714</v>
+        <v>1.16141111155324</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.195926405466182</v>
+        <v>-0.223095210248402</v>
       </c>
       <c r="X2" t="n">
-        <v>0.869320510306514</v>
+        <v>0.121400419146042</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.781538551153323</v>
+        <v>-1.47663850293463</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.12321730433519</v>
+        <v>0.108434677665275</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.61891703456091</v>
+        <v>0.234338932258116</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.16250436818016</v>
+        <v>0.405499069852869</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0561347049869795</v>
+        <v>-1.30326099384041</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.20971542806565</v>
+        <v>0.124012737424273</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.05194050010248</v>
+        <v>0.568457917824201</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.788757719247489</v>
+        <v>1.26491583761812</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.982945368436917</v>
+        <v>1.78851133492241</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.657901350952019</v>
+        <v>0.991654665458255</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.260165139501924</v>
+        <v>-0.513312498144264</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.24424079755055</v>
+        <v>0.671554143366149</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0244069309714319</v>
+        <v>0.0853048902319682</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.327970991090826</v>
+        <v>1.50692834077114</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.144542730972877</v>
+        <v>-0.791081931138822</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.5336976045859</v>
+        <v>1.88497087654423</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.365581221338501</v>
+        <v>0.366437261167781</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.306905021592831</v>
+        <v>0.193210715897762</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.91228227980236</v>
+        <v>-0.0683090305600048</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.13246546191699</v>
+        <v>-1.25140755712196</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.831930575988791</v>
+        <v>-0.446832420662573</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.41523110091361</v>
+        <v>-1.08716078978704</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.92685112569371</v>
+        <v>-0.170297477713868</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0440584247666186</v>
+        <v>0.406014067313114</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.13664033412592</v>
+        <v>-2.65138523427334</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.448992406000325</v>
+        <v>1.56448614321298</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.847953473782668</v>
+        <v>-1.49061765904033</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.95350865338323</v>
+        <v>-0.13531139447252</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.242692867092658</v>
+        <v>0.436814021674785</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.0885273847761684</v>
+        <v>0.218464897252679</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.458429004642173</v>
+        <v>0.47509482425101</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.49338060845938</v>
+        <v>-2.318939194589</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.65021564447278</v>
+        <v>0.598019244560973</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.972013834108028</v>
+        <v>1.5142475031732</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0517950354203126</v>
+        <v>0.302763882670332</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.502437216862234</v>
+        <v>0.614508399380379</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.829164610720029</v>
+        <v>0.235118312991024</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.71532240295755</v>
+        <v>0.216326092543769</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.0520203398404</v>
+        <v>-0.286114108739235</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.545376294544856</v>
+        <v>-0.528212785309137</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.92509356784785</v>
+        <v>-1.59973196082092</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.982256280471441</v>
+        <v>1.13971163348011</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.52547568025943</v>
+        <v>-0.412232993726088</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.494609737939811</v>
+        <v>0.596986687706396</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.866424793277451</v>
+        <v>-0.439747144051762</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.31048792836865</v>
+        <v>-1.23980375569257</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.785626746489772</v>
+        <v>0.14888118833752</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.37563988738774</v>
+        <v>-0.47735851799969</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.593617738778392</v>
+        <v>2.30591045617695</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.14784271960777</v>
+        <v>-0.807135538175598</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.19110066240207</v>
+        <v>0.733251602602671</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.156871502430927</v>
+        <v>-0.0634264575981681</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.745703937383647</v>
+        <v>-1.49970340382747</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.142556561466598</v>
+        <v>-0.323171199971376</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.360153713605203</v>
+        <v>1.29360959928533</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.822314466890088</v>
+        <v>-0.21508654431522</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.626195438863402</v>
+        <v>0.904876972424052</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.598790399336441</v>
+        <v>0.925402553851352</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.225722982712462</v>
+        <v>-0.10143826357288</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.827498221315784</v>
+        <v>-0.0824535530145167</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.609740536374046</v>
+        <v>1.01634866305117</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.4197245861521</v>
+        <v>-0.554332620579709</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.939536991713184</v>
+        <v>-0.57541267683086</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.488669011579229</v>
+        <v>0.330629432844155</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.407557354055821</v>
+        <v>-0.284727674294077</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.85591098226828</v>
+        <v>0.0862373009429894</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.873748440902461</v>
+        <v>-0.123359975175009</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.851952449395115</v>
+        <v>-0.0991590193408266</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.20922862741796</v>
+        <v>-1.29455444787293</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.38540261194284</v>
+        <v>-0.687960742540655</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.996360536796099</v>
+        <v>-0.936274078351203</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.970360691686504</v>
+        <v>-0.312570263294486</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.63247132986254</v>
+        <v>1.27111288369793</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.02337448328341</v>
+        <v>-0.561602908634514</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.704838304519631</v>
+        <v>-0.229585101707383</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.821613892237253</v>
+        <v>0.748594268539021</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.63575130459822</v>
+        <v>0.878381276475844</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.204754048561849</v>
+        <v>1.6200542299169</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.174551658421652</v>
+        <v>1.35250672849427</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.50361913541109</v>
+        <v>-1.61204109507313</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.544132789973489</v>
+        <v>0.0511567418047165</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.625182784948183</v>
+        <v>1.26940326425817</v>
       </c>
       <c r="DC2" t="n">
-        <v>-2.4006722716073</v>
+        <v>-0.527623904359859</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.517652852545071</v>
+        <v>-1.38138803855065</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.511218098768221</v>
+        <v>1.00140553307019</v>
       </c>
       <c r="DF2" t="n">
-        <v>-1.19022572535438</v>
+        <v>0.0945023654603443</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.0508284228202413</v>
+        <v>0.281974235996334</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.717391621424578</v>
+        <v>-0.165042611447422</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.60874606245651</v>
+        <v>1.33867440899652</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.613553691945908</v>
+        <v>0.226893916084773</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.0208936709282</v>
+        <v>-0.106181437565803</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0568360895628739</v>
+        <v>0.335152656162943</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.00974035449462</v>
+        <v>-0.034233723776716</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.618366748023557</v>
+        <v>-0.400156774294832</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.831312571721625</v>
+        <v>0.476641555097759</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.325429393082636</v>
+        <v>0.949680724373652</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.36906280283149</v>
+        <v>0.0357646935603891</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.2290120302103</v>
+        <v>0.569873033427406</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.524748367511917</v>
+        <v>0.0616608203554844</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.234477771793085</v>
+        <v>-0.329831754960601</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.580966805911375</v>
+        <v>-0.42465598047008</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.0718509788475502</v>
+        <v>-0.176282259840691</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.469576677150225</v>
+        <v>-1.11376717756238</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.31773823014291</v>
+        <v>1.92315283226248</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.993927405406004</v>
+        <v>-0.655436867568849</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.33349662330349</v>
+        <v>0.398207224775013</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.92541141295897</v>
+        <v>1.36656583110852</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.927937766815213</v>
+        <v>0.211282199963883</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.331980246784307</v>
+        <v>-0.0749312166148988</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.830248819500952</v>
+        <v>0.124216298049748</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.504529475601031</v>
+        <v>-0.779313793358434</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.572155380442499</v>
+        <v>-0.073624919878992</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.489701667341963</v>
+        <v>-0.0589058025230663</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.86124952458364</v>
+        <v>-0.048729630165379</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.615851899048746</v>
+        <v>-0.617914944685887</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-1.67777701617488</v>
+        <v>1.9426857766063</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.99084426442008</v>
+        <v>-0.442404423334667</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.515694367735934</v>
+        <v>-1.8712847012944</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.97887704756438</v>
+        <v>0.196146908259958</v>
       </c>
       <c r="EN2" t="n">
-        <v>-1.45698992546654</v>
+        <v>-1.60245801827812</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.80859460269456</v>
+        <v>0.310273350808718</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.621263120602213</v>
+        <v>0.534349436097997</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.7330188761906</v>
+        <v>-0.587301193210891</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.0974620503907456</v>
+        <v>-0.127784621721541</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.1405422631543</v>
+        <v>0.0797133644923477</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.989192333885191</v>
+        <v>1.02308101755053</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.765420113950613</v>
+        <v>1.07990726377441</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.730128488560176</v>
+        <v>0.689754466360458</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.00405819598707932</v>
+        <v>1.99973550483397</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.617923140583102</v>
+        <v>-1.54404594229534</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0780448552381649</v>
+        <v>1.10381908119462</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.72298918273614</v>
+        <v>-0.405840842196601</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.19676330839046</v>
+        <v>0.424090302254631</v>
       </c>
       <c r="FB2" t="n">
-        <v>2.4048549791487</v>
+        <v>1.52193016942919</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.186783054567616</v>
+        <v>-0.416597782661397</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.285336186424086</v>
+        <v>0.781846083747221</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.23836213746301</v>
+        <v>0.0876619034274636</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.897337536163497</v>
+        <v>0.261192466872662</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.981456930869437</v>
+        <v>0.018660992012753</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.150357208528377</v>
+        <v>0.545802011487559</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.862611228782634</v>
+        <v>-0.459748152334952</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.08308794706362</v>
+        <v>-0.203471428792841</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
@@ -1958,40 +1958,40 @@
         <v>1</v>
       </c>
       <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
         <v>0</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
         <v>1</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FS2" t="n">
         <v>1</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FT2" t="n">
         <v>1</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FU2" t="n">
         <v>0</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FV2" t="n">
         <v>0</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
         <v>0</v>
       </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
+      <c r="FY2" t="n">
         <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>1</v>
       </c>
       <c r="FZ2" t="n">
         <v>1</v>
@@ -2005,502 +2005,502 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.117231222385008</v>
+        <v>-0.685619418092694</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.651883163824413</v>
+        <v>0.225946659467814</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.629973656070482</v>
+        <v>-0.00494507607155675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.270775469246828</v>
+        <v>1.07649194687326</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.348797956736701</v>
+        <v>0.761794427237985</v>
       </c>
       <c r="F3" t="n">
-        <v>2.22545825627476</v>
+        <v>-0.907350807052398</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.121210701978425</v>
+        <v>2.50789202600838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68721532389603</v>
+        <v>-0.708752917405348</v>
       </c>
       <c r="I3" t="n">
-        <v>0.631846811426473</v>
+        <v>0.322458645890836</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.24842160045654</v>
+        <v>-0.128855447558002</v>
       </c>
       <c r="K3" t="n">
-        <v>1.08767659303277</v>
+        <v>0.51569499964805</v>
       </c>
       <c r="L3" t="n">
-        <v>0.86091700984159</v>
+        <v>-0.812102271025522</v>
       </c>
       <c r="M3" t="n">
-        <v>0.417676312261407</v>
+        <v>1.15679755030281</v>
       </c>
       <c r="N3" t="n">
-        <v>0.409509532138898</v>
+        <v>-0.0697731691669274</v>
       </c>
       <c r="O3" t="n">
-        <v>1.00535390971835</v>
+        <v>-1.07012493009609</v>
       </c>
       <c r="P3" t="n">
-        <v>0.707058633141238</v>
+        <v>0.335129320131629</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.254425669766197</v>
+        <v>-0.8133031019203</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.725675883093854</v>
+        <v>-0.547185802856021</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.27675270146216</v>
+        <v>-0.68667202011808</v>
       </c>
       <c r="T3" t="n">
-        <v>0.504109043802699</v>
+        <v>-0.911417401973203</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.375396199003497</v>
+        <v>0.983625234161184</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.01957755645714</v>
+        <v>1.16141111155324</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.195926405466182</v>
+        <v>-0.223095210248402</v>
       </c>
       <c r="X3" t="n">
-        <v>0.869320510306514</v>
+        <v>0.121400419146042</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.781538551153323</v>
+        <v>-1.47663850293463</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.12321730433519</v>
+        <v>0.108434677665275</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.61891703456091</v>
+        <v>0.234338932258116</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.16250436818016</v>
+        <v>0.405499069852869</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.0561347049869795</v>
+        <v>-1.30326099384041</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.20971542806565</v>
+        <v>0.124012737424273</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.05194050010248</v>
+        <v>0.568457917824201</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.788757719247489</v>
+        <v>1.26491583761812</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.982945368436917</v>
+        <v>1.78851133492241</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.657901350952019</v>
+        <v>0.991654665458255</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.260165139501924</v>
+        <v>-0.513312498144264</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.24424079755055</v>
+        <v>0.671554143366149</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0244069309714319</v>
+        <v>0.0853048902319682</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.327970991090826</v>
+        <v>1.50692834077114</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.144542730972877</v>
+        <v>-0.791081931138822</v>
       </c>
       <c r="AN3" t="n">
-        <v>-1.5336976045859</v>
+        <v>1.88497087654423</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.365581221338501</v>
+        <v>0.366437261167781</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.306905021592831</v>
+        <v>0.193210715897762</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.91228227980236</v>
+        <v>-0.0683090305600048</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.13246546191699</v>
+        <v>-1.25140755712196</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.831930575988791</v>
+        <v>-0.446832420662573</v>
       </c>
       <c r="AT3" t="n">
-        <v>-1.41523110091361</v>
+        <v>-1.08716078978704</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.92685112569371</v>
+        <v>-0.170297477713868</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0440584247666186</v>
+        <v>0.406014067313114</v>
       </c>
       <c r="AW3" t="n">
-        <v>-2.13664033412592</v>
+        <v>-2.65138523427334</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.448992406000325</v>
+        <v>1.56448614321298</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.847953473782668</v>
+        <v>-1.49061765904033</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1.95350865338323</v>
+        <v>-0.13531139447252</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.242692867092658</v>
+        <v>0.436814021674785</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.0885273847761684</v>
+        <v>0.218464897252679</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.458429004642173</v>
+        <v>0.47509482425101</v>
       </c>
       <c r="BD3" t="n">
-        <v>-1.49338060845938</v>
+        <v>-2.318939194589</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.65021564447278</v>
+        <v>0.598019244560973</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.972013834108028</v>
+        <v>1.5142475031732</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0517950354203126</v>
+        <v>0.302763882670332</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.502437216862234</v>
+        <v>0.614508399380379</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.829164610720029</v>
+        <v>0.235118312991024</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.71532240295755</v>
+        <v>0.216326092543769</v>
       </c>
       <c r="BK3" t="n">
-        <v>-1.0520203398404</v>
+        <v>-0.286114108739235</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.545376294544856</v>
+        <v>-0.528212785309137</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.92509356784785</v>
+        <v>-1.59973196082092</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.982256280471441</v>
+        <v>1.13971163348011</v>
       </c>
       <c r="BO3" t="n">
-        <v>-1.52547568025943</v>
+        <v>-0.412232993726088</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.494609737939811</v>
+        <v>0.596986687706396</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.866424793277451</v>
+        <v>-0.439747144051762</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.31048792836865</v>
+        <v>-1.23980375569257</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.785626746489772</v>
+        <v>0.14888118833752</v>
       </c>
       <c r="BT3" t="n">
-        <v>-1.37563988738774</v>
+        <v>-0.47735851799969</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.593617738778392</v>
+        <v>2.30591045617695</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.14784271960777</v>
+        <v>-0.807135538175598</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.19110066240207</v>
+        <v>0.733251602602671</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.156871502430927</v>
+        <v>-0.0634264575981681</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.745703937383647</v>
+        <v>-1.49970340382747</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.142556561466598</v>
+        <v>-0.323171199971376</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.360153713605203</v>
+        <v>1.29360959928533</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.822314466890088</v>
+        <v>-0.21508654431522</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.626195438863402</v>
+        <v>0.904876972424052</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.598790399336441</v>
+        <v>0.925402553851352</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0.225722982712462</v>
+        <v>-0.10143826357288</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.827498221315784</v>
+        <v>-0.0824535530145167</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.609740536374046</v>
+        <v>1.01634866305117</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.4197245861521</v>
+        <v>-0.554332620579709</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.939536991713184</v>
+        <v>-0.57541267683086</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.488669011579229</v>
+        <v>0.330629432844155</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0.407557354055821</v>
+        <v>-0.284727674294077</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.85591098226828</v>
+        <v>0.0862373009429894</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.873748440902461</v>
+        <v>-0.123359975175009</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.851952449395115</v>
+        <v>-0.0991590193408266</v>
       </c>
       <c r="CO3" t="n">
-        <v>-2.20922862741796</v>
+        <v>-1.29455444787293</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.38540261194284</v>
+        <v>-0.687960742540655</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.996360536796099</v>
+        <v>-0.936274078351203</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.970360691686504</v>
+        <v>-0.312570263294486</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.63247132986254</v>
+        <v>1.27111288369793</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.02337448328341</v>
+        <v>-0.561602908634514</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.704838304519631</v>
+        <v>-0.229585101707383</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.821613892237253</v>
+        <v>0.748594268539021</v>
       </c>
       <c r="CW3" t="n">
-        <v>-1.63575130459822</v>
+        <v>0.878381276475844</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.204754048561849</v>
+        <v>1.6200542299169</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.174551658421652</v>
+        <v>1.35250672849427</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.50361913541109</v>
+        <v>-1.61204109507313</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0.544132789973489</v>
+        <v>0.0511567418047165</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.625182784948183</v>
+        <v>1.26940326425817</v>
       </c>
       <c r="DC3" t="n">
-        <v>-2.4006722716073</v>
+        <v>-0.527623904359859</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.517652852545071</v>
+        <v>-1.38138803855065</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.511218098768221</v>
+        <v>1.00140553307019</v>
       </c>
       <c r="DF3" t="n">
-        <v>-1.19022572535438</v>
+        <v>0.0945023654603443</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.0508284228202413</v>
+        <v>0.281974235996334</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.717391621424578</v>
+        <v>-0.165042611447422</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.60874606245651</v>
+        <v>1.33867440899652</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.613553691945908</v>
+        <v>0.226893916084773</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.0208936709282</v>
+        <v>-0.106181437565803</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.0568360895628739</v>
+        <v>0.335152656162943</v>
       </c>
       <c r="DM3" t="n">
-        <v>2.00974035449462</v>
+        <v>-0.034233723776716</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.618366748023557</v>
+        <v>-0.400156774294832</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.831312571721625</v>
+        <v>0.476641555097759</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.325429393082636</v>
+        <v>0.949680724373652</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.36906280283149</v>
+        <v>0.0357646935603891</v>
       </c>
       <c r="DR3" t="n">
-        <v>-1.2290120302103</v>
+        <v>0.569873033427406</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.524748367511917</v>
+        <v>0.0616608203554844</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.234477771793085</v>
+        <v>-0.329831754960601</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0.580966805911375</v>
+        <v>-0.42465598047008</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.0718509788475502</v>
+        <v>-0.176282259840691</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.469576677150225</v>
+        <v>-1.11376717756238</v>
       </c>
       <c r="DX3" t="n">
-        <v>-1.31773823014291</v>
+        <v>1.92315283226248</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.993927405406004</v>
+        <v>-0.655436867568849</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.33349662330349</v>
+        <v>0.398207224775013</v>
       </c>
       <c r="EA3" t="n">
-        <v>-1.92541141295897</v>
+        <v>1.36656583110852</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.927937766815213</v>
+        <v>0.211282199963883</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.331980246784307</v>
+        <v>-0.0749312166148988</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0.830248819500952</v>
+        <v>0.124216298049748</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.504529475601031</v>
+        <v>-0.779313793358434</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.572155380442499</v>
+        <v>-0.073624919878992</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.489701667341963</v>
+        <v>-0.0589058025230663</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.86124952458364</v>
+        <v>-0.048729630165379</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.615851899048746</v>
+        <v>-0.617914944685887</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-1.67777701617488</v>
+        <v>1.9426857766063</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.99084426442008</v>
+        <v>-0.442404423334667</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.515694367735934</v>
+        <v>-1.8712847012944</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.97887704756438</v>
+        <v>0.196146908259958</v>
       </c>
       <c r="EN3" t="n">
-        <v>-1.45698992546654</v>
+        <v>-1.60245801827812</v>
       </c>
       <c r="EO3" t="n">
-        <v>2.80859460269456</v>
+        <v>0.310273350808718</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0.621263120602213</v>
+        <v>0.534349436097997</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.7330188761906</v>
+        <v>-0.587301193210891</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.0974620503907456</v>
+        <v>-0.127784621721541</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.1405422631543</v>
+        <v>0.0797133644923477</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.989192333885191</v>
+        <v>1.02308101755053</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.765420113950613</v>
+        <v>1.07990726377441</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.730128488560176</v>
+        <v>0.689754466360458</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.00405819598707932</v>
+        <v>1.99973550483397</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.617923140583102</v>
+        <v>-1.54404594229534</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0.0780448552381649</v>
+        <v>1.10381908119462</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-1.72298918273614</v>
+        <v>-0.405840842196601</v>
       </c>
       <c r="FA3" t="n">
-        <v>-1.19676330839046</v>
+        <v>0.424090302254631</v>
       </c>
       <c r="FB3" t="n">
-        <v>2.4048549791487</v>
+        <v>1.52193016942919</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.186783054567616</v>
+        <v>-0.416597782661397</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.285336186424086</v>
+        <v>0.781846083747221</v>
       </c>
       <c r="FE3" t="n">
-        <v>-1.23836213746301</v>
+        <v>0.0876619034274636</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.897337536163497</v>
+        <v>0.261192466872662</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.981456930869437</v>
+        <v>0.018660992012753</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.150357208528377</v>
+        <v>0.545802011487559</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.862611228782634</v>
+        <v>-0.459748152334952</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-1.08308794706362</v>
+        <v>-0.203471428792841</v>
       </c>
       <c r="FK3" t="n">
         <v>1</v>
@@ -2512,40 +2512,40 @@
         <v>1</v>
       </c>
       <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
         <v>0</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
         <v>1</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FS3" t="n">
         <v>1</v>
       </c>
-      <c r="FQ3" t="n">
+      <c r="FT3" t="n">
         <v>1</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FU3" t="n">
         <v>0</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FV3" t="n">
         <v>0</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" t="n">
         <v>0</v>
       </c>
-      <c r="FU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" t="n">
+      <c r="FY3" t="n">
         <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>1</v>
       </c>
       <c r="FZ3" t="n">
         <v>1</v>
@@ -2559,502 +2559,502 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.117231222385008</v>
+        <v>-0.685619418092694</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.651883163824413</v>
+        <v>0.225946659467814</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.629973656070482</v>
+        <v>-0.00494507607155675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.270775469246828</v>
+        <v>1.07649194687326</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.348797956736701</v>
+        <v>0.761794427237985</v>
       </c>
       <c r="F4" t="n">
-        <v>2.22545825627476</v>
+        <v>-0.907350807052398</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.121210701978425</v>
+        <v>2.50789202600838</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68721532389603</v>
+        <v>-0.708752917405348</v>
       </c>
       <c r="I4" t="n">
-        <v>0.631846811426473</v>
+        <v>0.322458645890836</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.24842160045654</v>
+        <v>-0.128855447558002</v>
       </c>
       <c r="K4" t="n">
-        <v>1.08767659303277</v>
+        <v>0.51569499964805</v>
       </c>
       <c r="L4" t="n">
-        <v>0.86091700984159</v>
+        <v>-0.812102271025522</v>
       </c>
       <c r="M4" t="n">
-        <v>0.417676312261407</v>
+        <v>1.15679755030281</v>
       </c>
       <c r="N4" t="n">
-        <v>0.409509532138898</v>
+        <v>-0.0697731691669274</v>
       </c>
       <c r="O4" t="n">
-        <v>1.00535390971835</v>
+        <v>-1.07012493009609</v>
       </c>
       <c r="P4" t="n">
-        <v>0.707058633141238</v>
+        <v>0.335129320131629</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.254425669766197</v>
+        <v>-0.8133031019203</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.725675883093854</v>
+        <v>-0.547185802856021</v>
       </c>
       <c r="S4" t="n">
-        <v>-1.27675270146216</v>
+        <v>-0.68667202011808</v>
       </c>
       <c r="T4" t="n">
-        <v>0.504109043802699</v>
+        <v>-0.911417401973203</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.375396199003497</v>
+        <v>0.983625234161184</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.01957755645714</v>
+        <v>1.16141111155324</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.195926405466182</v>
+        <v>-0.223095210248402</v>
       </c>
       <c r="X4" t="n">
-        <v>0.869320510306514</v>
+        <v>0.121400419146042</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.781538551153323</v>
+        <v>-1.47663850293463</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.12321730433519</v>
+        <v>0.108434677665275</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.61891703456091</v>
+        <v>0.234338932258116</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.16250436818016</v>
+        <v>0.405499069852869</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.0561347049869795</v>
+        <v>-1.30326099384041</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.20971542806565</v>
+        <v>0.124012737424273</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.05194050010248</v>
+        <v>0.568457917824201</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.788757719247489</v>
+        <v>1.26491583761812</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.982945368436917</v>
+        <v>1.78851133492241</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.657901350952019</v>
+        <v>0.991654665458255</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.260165139501924</v>
+        <v>-0.513312498144264</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.24424079755055</v>
+        <v>0.671554143366149</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0244069309714319</v>
+        <v>0.0853048902319682</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.327970991090826</v>
+        <v>1.50692834077114</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.144542730972877</v>
+        <v>-0.791081931138822</v>
       </c>
       <c r="AN4" t="n">
-        <v>-1.5336976045859</v>
+        <v>1.88497087654423</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.365581221338501</v>
+        <v>0.366437261167781</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.306905021592831</v>
+        <v>0.193210715897762</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.91228227980236</v>
+        <v>-0.0683090305600048</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.13246546191699</v>
+        <v>-1.25140755712196</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.831930575988791</v>
+        <v>-0.446832420662573</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1.41523110091361</v>
+        <v>-1.08716078978704</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.92685112569371</v>
+        <v>-0.170297477713868</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0440584247666186</v>
+        <v>0.406014067313114</v>
       </c>
       <c r="AW4" t="n">
-        <v>-2.13664033412592</v>
+        <v>-2.65138523427334</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.448992406000325</v>
+        <v>1.56448614321298</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.847953473782668</v>
+        <v>-1.49061765904033</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1.95350865338323</v>
+        <v>-0.13531139447252</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.242692867092658</v>
+        <v>0.436814021674785</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.0885273847761684</v>
+        <v>0.218464897252679</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.458429004642173</v>
+        <v>0.47509482425101</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1.49338060845938</v>
+        <v>-2.318939194589</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.65021564447278</v>
+        <v>0.598019244560973</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.972013834108028</v>
+        <v>1.5142475031732</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0517950354203126</v>
+        <v>0.302763882670332</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.502437216862234</v>
+        <v>0.614508399380379</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.829164610720029</v>
+        <v>0.235118312991024</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.71532240295755</v>
+        <v>0.216326092543769</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1.0520203398404</v>
+        <v>-0.286114108739235</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.545376294544856</v>
+        <v>-0.528212785309137</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.92509356784785</v>
+        <v>-1.59973196082092</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.982256280471441</v>
+        <v>1.13971163348011</v>
       </c>
       <c r="BO4" t="n">
-        <v>-1.52547568025943</v>
+        <v>-0.412232993726088</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.494609737939811</v>
+        <v>0.596986687706396</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.866424793277451</v>
+        <v>-0.439747144051762</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.31048792836865</v>
+        <v>-1.23980375569257</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.785626746489772</v>
+        <v>0.14888118833752</v>
       </c>
       <c r="BT4" t="n">
-        <v>-1.37563988738774</v>
+        <v>-0.47735851799969</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.593617738778392</v>
+        <v>2.30591045617695</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.14784271960777</v>
+        <v>-0.807135538175598</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.19110066240207</v>
+        <v>0.733251602602671</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.156871502430927</v>
+        <v>-0.0634264575981681</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.745703937383647</v>
+        <v>-1.49970340382747</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.142556561466598</v>
+        <v>-0.323171199971376</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0.360153713605203</v>
+        <v>1.29360959928533</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.822314466890088</v>
+        <v>-0.21508654431522</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.626195438863402</v>
+        <v>0.904876972424052</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.598790399336441</v>
+        <v>0.925402553851352</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.225722982712462</v>
+        <v>-0.10143826357288</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.827498221315784</v>
+        <v>-0.0824535530145167</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.609740536374046</v>
+        <v>1.01634866305117</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.4197245861521</v>
+        <v>-0.554332620579709</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.939536991713184</v>
+        <v>-0.57541267683086</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.488669011579229</v>
+        <v>0.330629432844155</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.407557354055821</v>
+        <v>-0.284727674294077</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.85591098226828</v>
+        <v>0.0862373009429894</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.873748440902461</v>
+        <v>-0.123359975175009</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.851952449395115</v>
+        <v>-0.0991590193408266</v>
       </c>
       <c r="CO4" t="n">
-        <v>-2.20922862741796</v>
+        <v>-1.29455444787293</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.38540261194284</v>
+        <v>-0.687960742540655</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.996360536796099</v>
+        <v>-0.936274078351203</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.970360691686504</v>
+        <v>-0.312570263294486</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.63247132986254</v>
+        <v>1.27111288369793</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.02337448328341</v>
+        <v>-0.561602908634514</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.704838304519631</v>
+        <v>-0.229585101707383</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.821613892237253</v>
+        <v>0.748594268539021</v>
       </c>
       <c r="CW4" t="n">
-        <v>-1.63575130459822</v>
+        <v>0.878381276475844</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.204754048561849</v>
+        <v>1.6200542299169</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.174551658421652</v>
+        <v>1.35250672849427</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.50361913541109</v>
+        <v>-1.61204109507313</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.544132789973489</v>
+        <v>0.0511567418047165</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.625182784948183</v>
+        <v>1.26940326425817</v>
       </c>
       <c r="DC4" t="n">
-        <v>-2.4006722716073</v>
+        <v>-0.527623904359859</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.517652852545071</v>
+        <v>-1.38138803855065</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.511218098768221</v>
+        <v>1.00140553307019</v>
       </c>
       <c r="DF4" t="n">
-        <v>-1.19022572535438</v>
+        <v>0.0945023654603443</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.0508284228202413</v>
+        <v>0.281974235996334</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.717391621424578</v>
+        <v>-0.165042611447422</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.60874606245651</v>
+        <v>1.33867440899652</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.613553691945908</v>
+        <v>0.226893916084773</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.0208936709282</v>
+        <v>-0.106181437565803</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.0568360895628739</v>
+        <v>0.335152656162943</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.00974035449462</v>
+        <v>-0.034233723776716</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.618366748023557</v>
+        <v>-0.400156774294832</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.831312571721625</v>
+        <v>0.476641555097759</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.325429393082636</v>
+        <v>0.949680724373652</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.36906280283149</v>
+        <v>0.0357646935603891</v>
       </c>
       <c r="DR4" t="n">
-        <v>-1.2290120302103</v>
+        <v>0.569873033427406</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.524748367511917</v>
+        <v>0.0616608203554844</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.234477771793085</v>
+        <v>-0.329831754960601</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.580966805911375</v>
+        <v>-0.42465598047008</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.0718509788475502</v>
+        <v>-0.176282259840691</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.469576677150225</v>
+        <v>-1.11376717756238</v>
       </c>
       <c r="DX4" t="n">
-        <v>-1.31773823014291</v>
+        <v>1.92315283226248</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.993927405406004</v>
+        <v>-0.655436867568849</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.33349662330349</v>
+        <v>0.398207224775013</v>
       </c>
       <c r="EA4" t="n">
-        <v>-1.92541141295897</v>
+        <v>1.36656583110852</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.927937766815213</v>
+        <v>0.211282199963883</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.331980246784307</v>
+        <v>-0.0749312166148988</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.830248819500952</v>
+        <v>0.124216298049748</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.504529475601031</v>
+        <v>-0.779313793358434</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.572155380442499</v>
+        <v>-0.073624919878992</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.489701667341963</v>
+        <v>-0.0589058025230663</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.86124952458364</v>
+        <v>-0.048729630165379</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.615851899048746</v>
+        <v>-0.617914944685887</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-1.67777701617488</v>
+        <v>1.9426857766063</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.99084426442008</v>
+        <v>-0.442404423334667</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.515694367735934</v>
+        <v>-1.8712847012944</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.97887704756438</v>
+        <v>0.196146908259958</v>
       </c>
       <c r="EN4" t="n">
-        <v>-1.45698992546654</v>
+        <v>-1.60245801827812</v>
       </c>
       <c r="EO4" t="n">
-        <v>2.80859460269456</v>
+        <v>0.310273350808718</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.621263120602213</v>
+        <v>0.534349436097997</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7330188761906</v>
+        <v>-0.587301193210891</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.0974620503907456</v>
+        <v>-0.127784621721541</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.1405422631543</v>
+        <v>0.0797133644923477</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.989192333885191</v>
+        <v>1.02308101755053</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0.765420113950613</v>
+        <v>1.07990726377441</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.730128488560176</v>
+        <v>0.689754466360458</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.00405819598707932</v>
+        <v>1.99973550483397</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.617923140583102</v>
+        <v>-1.54404594229534</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.0780448552381649</v>
+        <v>1.10381908119462</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-1.72298918273614</v>
+        <v>-0.405840842196601</v>
       </c>
       <c r="FA4" t="n">
-        <v>-1.19676330839046</v>
+        <v>0.424090302254631</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.4048549791487</v>
+        <v>1.52193016942919</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.186783054567616</v>
+        <v>-0.416597782661397</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.285336186424086</v>
+        <v>0.781846083747221</v>
       </c>
       <c r="FE4" t="n">
-        <v>-1.23836213746301</v>
+        <v>0.0876619034274636</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.897337536163497</v>
+        <v>0.261192466872662</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.981456930869437</v>
+        <v>0.018660992012753</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.150357208528377</v>
+        <v>0.545802011487559</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.862611228782634</v>
+        <v>-0.459748152334952</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-1.08308794706362</v>
+        <v>-0.203471428792841</v>
       </c>
       <c r="FK4" t="n">
         <v>1</v>
@@ -3066,40 +3066,40 @@
         <v>1</v>
       </c>
       <c r="FN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" t="n">
         <v>0</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
         <v>1</v>
       </c>
-      <c r="FP4" t="n">
+      <c r="FS4" t="n">
         <v>1</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FT4" t="n">
         <v>1</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FU4" t="n">
         <v>0</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FV4" t="n">
         <v>0</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX4" t="n">
         <v>0</v>
       </c>
-      <c r="FU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW4" t="n">
+      <c r="FY4" t="n">
         <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>1</v>
       </c>
       <c r="FZ4" t="n">
         <v>1</v>

--- a/file_checks/dataset_X_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/dataset_X_wrong_genes_correct_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">X_1</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">Endo</t>
@@ -1448,532 +1457,541 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.685619418092694</v>
+        <v>-0.898624535301718</v>
       </c>
       <c r="B2" t="n">
-        <v>0.225946659467814</v>
+        <v>0.077300214119455</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00494507607155675</v>
+        <v>-0.543964003644239</v>
       </c>
       <c r="D2" t="n">
-        <v>1.07649194687326</v>
+        <v>-2.14500626175395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.761794427237985</v>
+        <v>1.1962741407631</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.907350807052398</v>
+        <v>-0.783729475197846</v>
       </c>
       <c r="G2" t="n">
-        <v>2.50789202600838</v>
+        <v>-2.0267128110128</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.708752917405348</v>
+        <v>-0.987218236008914</v>
       </c>
       <c r="I2" t="n">
-        <v>0.322458645890836</v>
+        <v>-1.9433832516638</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.128855447558002</v>
+        <v>0.577999938789728</v>
       </c>
       <c r="K2" t="n">
-        <v>0.51569499964805</v>
+        <v>1.21937482795796</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.812102271025522</v>
+        <v>0.0852085553445706</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15679755030281</v>
+        <v>-1.07525559829065</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0697731691669274</v>
+        <v>1.63083855283155</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.07012493009609</v>
+        <v>0.4260962891321</v>
       </c>
       <c r="P2" t="n">
-        <v>0.335129320131629</v>
+        <v>1.13135764755628</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.8133031019203</v>
+        <v>0.79801703163813</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.547185802856021</v>
+        <v>0.57336180898402</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.68667202011808</v>
+        <v>1.54801932795929</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.911417401973203</v>
+        <v>0.55162981221778</v>
       </c>
       <c r="U2" t="n">
-        <v>0.983625234161184</v>
+        <v>0.615669287790689</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16141111155324</v>
+        <v>1.50839321017645</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.223095210248402</v>
+        <v>1.90746784092299</v>
       </c>
       <c r="X2" t="n">
-        <v>0.121400419146042</v>
+        <v>1.04997669454547</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.47663850293463</v>
+        <v>2.12013058508788</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.108434677665275</v>
+        <v>-1.4508666690228</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.234338932258116</v>
+        <v>-0.330232143397093</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.405499069852869</v>
+        <v>0.94124631127262</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.30326099384041</v>
+        <v>0.899241734906422</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.124012737424273</v>
+        <v>0.229889011265977</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.568457917824201</v>
+        <v>-1.74702849347167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.26491583761812</v>
+        <v>-1.26708576855857</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.78851133492241</v>
+        <v>0.0174747928953243</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.991654665458255</v>
+        <v>0.976372643777029</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.513312498144264</v>
+        <v>0.321844211897945</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.671554143366149</v>
+        <v>-0.855191821968963</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0853048902319682</v>
+        <v>-0.572617526622388</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.50692834077114</v>
+        <v>-0.630813182768941</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.791081931138822</v>
+        <v>-0.425863458889048</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.88497087654423</v>
+        <v>0.705285663901528</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.366437261167781</v>
+        <v>0.86235525200306</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.193210715897762</v>
+        <v>-0.904029873049456</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0683090305600048</v>
+        <v>0.69066621968156</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.25140755712196</v>
+        <v>0.84793192742262</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.446832420662573</v>
+        <v>0.778244726688304</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.08716078978704</v>
+        <v>1.59905344956274</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.170297477713868</v>
+        <v>0.518980118336574</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.406014067313114</v>
+        <v>-0.0458342429057893</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.65138523427334</v>
+        <v>0.199544058833437</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.56448614321298</v>
+        <v>1.25402789959291</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.49061765904033</v>
+        <v>0.137993688989314</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.13531139447252</v>
+        <v>0.883913268115679</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.436814021674785</v>
+        <v>0.44181603428123</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.218464897252679</v>
+        <v>-0.856807356705311</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.47509482425101</v>
+        <v>-0.370940639179046</v>
       </c>
       <c r="BD2" t="n">
-        <v>-2.318939194589</v>
+        <v>-1.4424255040546</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.598019244560973</v>
+        <v>-0.603753321899266</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.5142475031732</v>
+        <v>-0.00453343227493007</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.302763882670332</v>
+        <v>2.01816824414963</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.614508399380379</v>
+        <v>0.687046265267196</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.235118312991024</v>
+        <v>-0.702095189626774</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.216326092543769</v>
+        <v>0.663941532165132</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.286114108739235</v>
+        <v>0.0955497296122858</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.528212785309137</v>
+        <v>0.652878343289579</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.59973196082092</v>
+        <v>-0.000963885317136659</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.13971163348011</v>
+        <v>0.790128001445733</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.412232993726088</v>
+        <v>1.69780150724907</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.596986687706396</v>
+        <v>-0.760094351537884</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.439747144051762</v>
+        <v>-0.093106682066332</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.23980375569257</v>
+        <v>-1.03637958957259</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.14888118833752</v>
+        <v>-0.639400133471928</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.47735851799969</v>
+        <v>-0.0399483131924028</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.30591045617695</v>
+        <v>-0.265920694797773</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.807135538175598</v>
+        <v>-0.942083084544316</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.733251602602671</v>
+        <v>0.653322066007636</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0634264575981681</v>
+        <v>-0.286921081164447</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.49970340382747</v>
+        <v>0.348659732405639</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.323171199971376</v>
+        <v>-0.724719965784086</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.29360959928533</v>
+        <v>-1.88298593272232</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.21508654431522</v>
+        <v>0.862601789281916</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.904876972424052</v>
+        <v>-0.156706154519887</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.925402553851352</v>
+        <v>0.557190064092759</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.10143826357288</v>
+        <v>0.591348632760738</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0824535530145167</v>
+        <v>0.551339600526879</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.01634866305117</v>
+        <v>-0.540498990232031</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.554332620579709</v>
+        <v>1.61312375236137</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.57541267683086</v>
+        <v>0.247109554594005</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.330629432844155</v>
+        <v>-0.493812006362956</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.284727674294077</v>
+        <v>0.317631588386849</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0862373009429894</v>
+        <v>-0.937801444077428</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.123359975175009</v>
+        <v>0.411241942790909</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0991590193408266</v>
+        <v>0.774761106374641</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.29455444787293</v>
+        <v>1.50187105656282</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.687960742540655</v>
+        <v>0.712157461094183</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.936274078351203</v>
+        <v>-1.5893899032207</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.312570263294486</v>
+        <v>0.554065925145372</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.27111288369793</v>
+        <v>-0.371679570397957</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.561602908634514</v>
+        <v>0.682735808463474</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.229585101707383</v>
+        <v>-2.49727639886756</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.748594268539021</v>
+        <v>0.996010330327716</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.878381276475844</v>
+        <v>-0.524437992613047</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.6200542299169</v>
+        <v>1.23730547654463</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.35250672849427</v>
+        <v>-0.872832871159456</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.61204109507313</v>
+        <v>-2.45134796678947</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0511567418047165</v>
+        <v>1.14543670677914</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.26940326425817</v>
+        <v>-1.3706056329232</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.527623904359859</v>
+        <v>-0.0071807703284703</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.38138803855065</v>
+        <v>-1.77185421777621</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.00140553307019</v>
+        <v>-2.14850149398974</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0945023654603443</v>
+        <v>-0.367008240656346</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.281974235996334</v>
+        <v>1.41149105767013</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.165042611447422</v>
+        <v>0.230570770171961</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.33867440899652</v>
+        <v>0.397273797806033</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.226893916084773</v>
+        <v>1.03094587995619</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.106181437565803</v>
+        <v>-0.256377845630879</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.335152656162943</v>
+        <v>-0.222529573425218</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.034233723776716</v>
+        <v>0.726102253303828</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.400156774294832</v>
+        <v>1.39658480927392</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.476641555097759</v>
+        <v>0.388447828473519</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.949680724373652</v>
+        <v>-1.26444855511044</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0357646935603891</v>
+        <v>-0.889828745660145</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.569873033427406</v>
+        <v>0.959462657374943</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0616608203554844</v>
+        <v>-0.588373101284952</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.329831754960601</v>
+        <v>-0.190744225925707</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.42465598047008</v>
+        <v>-0.575669461913658</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.176282259840691</v>
+        <v>0.275531150886698</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.11376717756238</v>
+        <v>0.10208509021238</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.92315283226248</v>
+        <v>0.647853199980797</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.655436867568849</v>
+        <v>1.23731635116367</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.398207224775013</v>
+        <v>-1.23427660732106</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.36656583110852</v>
+        <v>-1.52057812880028</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.211282199963883</v>
+        <v>1.32802626466996</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.0749312166148988</v>
+        <v>-0.118684537181319</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.124216298049748</v>
+        <v>-1.22115239868577</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.779313793358434</v>
+        <v>-0.683971176403494</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.073624919878992</v>
+        <v>-0.211765053244559</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0589058025230663</v>
+        <v>0.287178408265665</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.048729630165379</v>
+        <v>-0.360219745631015</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.617914944685887</v>
+        <v>-0.844835199834572</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.9426857766063</v>
+        <v>1.61851170973939</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.442404423334667</v>
+        <v>-0.468972531745566</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.8712847012944</v>
+        <v>0.120988348175001</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.196146908259958</v>
+        <v>1.93424949446982</v>
       </c>
       <c r="EN2" t="n">
-        <v>-1.60245801827812</v>
+        <v>0.128832600406674</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.310273350808718</v>
+        <v>0.193912799322384</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.534349436097997</v>
+        <v>-0.022298608179423</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.587301193210891</v>
+        <v>-0.144271256663676</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.127784621721541</v>
+        <v>-0.267934827994438</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0797133644923477</v>
+        <v>0.707837159044768</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.02308101755053</v>
+        <v>-0.826751824295296</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.07990726377441</v>
+        <v>-1.43398930086607</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.689754466360458</v>
+        <v>0.174379166601686</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.99973550483397</v>
+        <v>-0.551860816215127</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.54404594229534</v>
+        <v>1.26575893641792</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.10381908119462</v>
+        <v>-0.0220110847290952</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.405840842196601</v>
+        <v>-0.39546410578629</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.424090302254631</v>
+        <v>0.915580083389705</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.52193016942919</v>
+        <v>-2.50228020960723</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.416597782661397</v>
+        <v>-0.603779114818734</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.781846083747221</v>
+        <v>0.188357414202103</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0876619034274636</v>
+        <v>1.28877299155131</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.261192466872662</v>
+        <v>1.83883798745919</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.018660992012753</v>
+        <v>-0.369552524966294</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.545802011487559</v>
+        <v>0.0347402961150459</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.459748152334952</v>
+        <v>1.09040308966126</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.203471428792841</v>
+        <v>-1.32446729426015</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
       </c>
       <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
         <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
       </c>
       <c r="FT2" t="n">
         <v>1</v>
@@ -1982,552 +2000,561 @@
         <v>0</v>
       </c>
       <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
         <v>0</v>
       </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
       <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB2" t="n">
         <v>0</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="GC2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
         <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.685619418092694</v>
+        <v>-0.898624535301718</v>
       </c>
       <c r="B3" t="n">
-        <v>0.225946659467814</v>
+        <v>0.077300214119455</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00494507607155675</v>
+        <v>-0.543964003644239</v>
       </c>
       <c r="D3" t="n">
-        <v>1.07649194687326</v>
+        <v>-2.14500626175395</v>
       </c>
       <c r="E3" t="n">
-        <v>0.761794427237985</v>
+        <v>1.1962741407631</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.907350807052398</v>
+        <v>-0.783729475197846</v>
       </c>
       <c r="G3" t="n">
-        <v>2.50789202600838</v>
+        <v>-2.0267128110128</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.708752917405348</v>
+        <v>-0.987218236008914</v>
       </c>
       <c r="I3" t="n">
-        <v>0.322458645890836</v>
+        <v>-1.9433832516638</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.128855447558002</v>
+        <v>0.577999938789728</v>
       </c>
       <c r="K3" t="n">
-        <v>0.51569499964805</v>
+        <v>1.21937482795796</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.812102271025522</v>
+        <v>0.0852085553445706</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15679755030281</v>
+        <v>-1.07525559829065</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0697731691669274</v>
+        <v>1.63083855283155</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.07012493009609</v>
+        <v>0.4260962891321</v>
       </c>
       <c r="P3" t="n">
-        <v>0.335129320131629</v>
+        <v>1.13135764755628</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.8133031019203</v>
+        <v>0.79801703163813</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.547185802856021</v>
+        <v>0.57336180898402</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.68667202011808</v>
+        <v>1.54801932795929</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.911417401973203</v>
+        <v>0.55162981221778</v>
       </c>
       <c r="U3" t="n">
-        <v>0.983625234161184</v>
+        <v>0.615669287790689</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16141111155324</v>
+        <v>1.50839321017645</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.223095210248402</v>
+        <v>1.90746784092299</v>
       </c>
       <c r="X3" t="n">
-        <v>0.121400419146042</v>
+        <v>1.04997669454547</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.47663850293463</v>
+        <v>2.12013058508788</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.108434677665275</v>
+        <v>-1.4508666690228</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.234338932258116</v>
+        <v>-0.330232143397093</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.405499069852869</v>
+        <v>0.94124631127262</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.30326099384041</v>
+        <v>0.899241734906422</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.124012737424273</v>
+        <v>0.229889011265977</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.568457917824201</v>
+        <v>-1.74702849347167</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.26491583761812</v>
+        <v>-1.26708576855857</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.78851133492241</v>
+        <v>0.0174747928953243</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.991654665458255</v>
+        <v>0.976372643777029</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.513312498144264</v>
+        <v>0.321844211897945</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.671554143366149</v>
+        <v>-0.855191821968963</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0853048902319682</v>
+        <v>-0.572617526622388</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.50692834077114</v>
+        <v>-0.630813182768941</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.791081931138822</v>
+        <v>-0.425863458889048</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.88497087654423</v>
+        <v>0.705285663901528</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.366437261167781</v>
+        <v>0.86235525200306</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.193210715897762</v>
+        <v>-0.904029873049456</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.0683090305600048</v>
+        <v>0.69066621968156</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.25140755712196</v>
+        <v>0.84793192742262</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.446832420662573</v>
+        <v>0.778244726688304</v>
       </c>
       <c r="AT3" t="n">
-        <v>-1.08716078978704</v>
+        <v>1.59905344956274</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.170297477713868</v>
+        <v>0.518980118336574</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.406014067313114</v>
+        <v>-0.0458342429057893</v>
       </c>
       <c r="AW3" t="n">
-        <v>-2.65138523427334</v>
+        <v>0.199544058833437</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.56448614321298</v>
+        <v>1.25402789959291</v>
       </c>
       <c r="AY3" t="n">
-        <v>-1.49061765904033</v>
+        <v>0.137993688989314</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.13531139447252</v>
+        <v>0.883913268115679</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.436814021674785</v>
+        <v>0.44181603428123</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.218464897252679</v>
+        <v>-0.856807356705311</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.47509482425101</v>
+        <v>-0.370940639179046</v>
       </c>
       <c r="BD3" t="n">
-        <v>-2.318939194589</v>
+        <v>-1.4424255040546</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.598019244560973</v>
+        <v>-0.603753321899266</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.5142475031732</v>
+        <v>-0.00453343227493007</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.302763882670332</v>
+        <v>2.01816824414963</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.614508399380379</v>
+        <v>0.687046265267196</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.235118312991024</v>
+        <v>-0.702095189626774</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.216326092543769</v>
+        <v>0.663941532165132</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.286114108739235</v>
+        <v>0.0955497296122858</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.528212785309137</v>
+        <v>0.652878343289579</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.59973196082092</v>
+        <v>-0.000963885317136659</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.13971163348011</v>
+        <v>0.790128001445733</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.412232993726088</v>
+        <v>1.69780150724907</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.596986687706396</v>
+        <v>-0.760094351537884</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.439747144051762</v>
+        <v>-0.093106682066332</v>
       </c>
       <c r="BR3" t="n">
-        <v>-1.23980375569257</v>
+        <v>-1.03637958957259</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.14888118833752</v>
+        <v>-0.639400133471928</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.47735851799969</v>
+        <v>-0.0399483131924028</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.30591045617695</v>
+        <v>-0.265920694797773</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0.807135538175598</v>
+        <v>-0.942083084544316</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.733251602602671</v>
+        <v>0.653322066007636</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.0634264575981681</v>
+        <v>-0.286921081164447</v>
       </c>
       <c r="BY3" t="n">
-        <v>-1.49970340382747</v>
+        <v>0.348659732405639</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.323171199971376</v>
+        <v>-0.724719965784086</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.29360959928533</v>
+        <v>-1.88298593272232</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.21508654431522</v>
+        <v>0.862601789281916</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.904876972424052</v>
+        <v>-0.156706154519887</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.925402553851352</v>
+        <v>0.557190064092759</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0.10143826357288</v>
+        <v>0.591348632760738</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.0824535530145167</v>
+        <v>0.551339600526879</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.01634866305117</v>
+        <v>-0.540498990232031</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.554332620579709</v>
+        <v>1.61312375236137</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.57541267683086</v>
+        <v>0.247109554594005</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.330629432844155</v>
+        <v>-0.493812006362956</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0.284727674294077</v>
+        <v>0.317631588386849</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0862373009429894</v>
+        <v>-0.937801444077428</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.123359975175009</v>
+        <v>0.411241942790909</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0.0991590193408266</v>
+        <v>0.774761106374641</v>
       </c>
       <c r="CO3" t="n">
-        <v>-1.29455444787293</v>
+        <v>1.50187105656282</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.687960742540655</v>
+        <v>0.712157461094183</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.936274078351203</v>
+        <v>-1.5893899032207</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.312570263294486</v>
+        <v>0.554065925145372</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.27111288369793</v>
+        <v>-0.371679570397957</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.561602908634514</v>
+        <v>0.682735808463474</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.229585101707383</v>
+        <v>-2.49727639886756</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.748594268539021</v>
+        <v>0.996010330327716</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.878381276475844</v>
+        <v>-0.524437992613047</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.6200542299169</v>
+        <v>1.23730547654463</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.35250672849427</v>
+        <v>-0.872832871159456</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-1.61204109507313</v>
+        <v>-2.45134796678947</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0511567418047165</v>
+        <v>1.14543670677914</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.26940326425817</v>
+        <v>-1.3706056329232</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.527623904359859</v>
+        <v>-0.0071807703284703</v>
       </c>
       <c r="DD3" t="n">
-        <v>-1.38138803855065</v>
+        <v>-1.77185421777621</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.00140553307019</v>
+        <v>-2.14850149398974</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0945023654603443</v>
+        <v>-0.367008240656346</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.281974235996334</v>
+        <v>1.41149105767013</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.165042611447422</v>
+        <v>0.230570770171961</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.33867440899652</v>
+        <v>0.397273797806033</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.226893916084773</v>
+        <v>1.03094587995619</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.106181437565803</v>
+        <v>-0.256377845630879</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.335152656162943</v>
+        <v>-0.222529573425218</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.034233723776716</v>
+        <v>0.726102253303828</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.400156774294832</v>
+        <v>1.39658480927392</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.476641555097759</v>
+        <v>0.388447828473519</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.949680724373652</v>
+        <v>-1.26444855511044</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0357646935603891</v>
+        <v>-0.889828745660145</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.569873033427406</v>
+        <v>0.959462657374943</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0616608203554844</v>
+        <v>-0.588373101284952</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.329831754960601</v>
+        <v>-0.190744225925707</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0.42465598047008</v>
+        <v>-0.575669461913658</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.176282259840691</v>
+        <v>0.275531150886698</v>
       </c>
       <c r="DW3" t="n">
-        <v>-1.11376717756238</v>
+        <v>0.10208509021238</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.92315283226248</v>
+        <v>0.647853199980797</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.655436867568849</v>
+        <v>1.23731635116367</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.398207224775013</v>
+        <v>-1.23427660732106</v>
       </c>
       <c r="EA3" t="n">
-        <v>1.36656583110852</v>
+        <v>-1.52057812880028</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.211282199963883</v>
+        <v>1.32802626466996</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.0749312166148988</v>
+        <v>-0.118684537181319</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.124216298049748</v>
+        <v>-1.22115239868577</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.779313793358434</v>
+        <v>-0.683971176403494</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.073624919878992</v>
+        <v>-0.211765053244559</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0.0589058025230663</v>
+        <v>0.287178408265665</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.048729630165379</v>
+        <v>-0.360219745631015</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.617914944685887</v>
+        <v>-0.844835199834572</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.9426857766063</v>
+        <v>1.61851170973939</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.442404423334667</v>
+        <v>-0.468972531745566</v>
       </c>
       <c r="EL3" t="n">
-        <v>-1.8712847012944</v>
+        <v>0.120988348175001</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.196146908259958</v>
+        <v>1.93424949446982</v>
       </c>
       <c r="EN3" t="n">
-        <v>-1.60245801827812</v>
+        <v>0.128832600406674</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.310273350808718</v>
+        <v>0.193912799322384</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.534349436097997</v>
+        <v>-0.022298608179423</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.587301193210891</v>
+        <v>-0.144271256663676</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.127784621721541</v>
+        <v>-0.267934827994438</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0797133644923477</v>
+        <v>0.707837159044768</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.02308101755053</v>
+        <v>-0.826751824295296</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.07990726377441</v>
+        <v>-1.43398930086607</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.689754466360458</v>
+        <v>0.174379166601686</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.99973550483397</v>
+        <v>-0.551860816215127</v>
       </c>
       <c r="EX3" t="n">
-        <v>-1.54404594229534</v>
+        <v>1.26575893641792</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.10381908119462</v>
+        <v>-0.0220110847290952</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.405840842196601</v>
+        <v>-0.39546410578629</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.424090302254631</v>
+        <v>0.915580083389705</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.52193016942919</v>
+        <v>-2.50228020960723</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.416597782661397</v>
+        <v>-0.603779114818734</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.781846083747221</v>
+        <v>0.188357414202103</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0876619034274636</v>
+        <v>1.28877299155131</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.261192466872662</v>
+        <v>1.83883798745919</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.018660992012753</v>
+        <v>-0.369552524966294</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.545802011487559</v>
+        <v>0.0347402961150459</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.459748152334952</v>
+        <v>1.09040308966126</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.203471428792841</v>
+        <v>-1.32446729426015</v>
       </c>
       <c r="FK3" t="n">
         <v>1</v>
       </c>
       <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" t="n">
         <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>1</v>
       </c>
       <c r="FT3" t="n">
         <v>1</v>
@@ -2536,552 +2563,561 @@
         <v>0</v>
       </c>
       <c r="FV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" t="n">
         <v>0</v>
       </c>
-      <c r="FW3" t="n">
-        <v>1</v>
-      </c>
       <c r="FX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB3" t="n">
         <v>0</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="GC3" t="n">
         <v>0</v>
       </c>
-      <c r="FZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" t="n">
+      <c r="GD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" t="n">
         <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.685619418092694</v>
+        <v>-0.898624535301718</v>
       </c>
       <c r="B4" t="n">
-        <v>0.225946659467814</v>
+        <v>0.077300214119455</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00494507607155675</v>
+        <v>-0.543964003644239</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07649194687326</v>
+        <v>-2.14500626175395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.761794427237985</v>
+        <v>1.1962741407631</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.907350807052398</v>
+        <v>-0.783729475197846</v>
       </c>
       <c r="G4" t="n">
-        <v>2.50789202600838</v>
+        <v>-2.0267128110128</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.708752917405348</v>
+        <v>-0.987218236008914</v>
       </c>
       <c r="I4" t="n">
-        <v>0.322458645890836</v>
+        <v>-1.9433832516638</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.128855447558002</v>
+        <v>0.577999938789728</v>
       </c>
       <c r="K4" t="n">
-        <v>0.51569499964805</v>
+        <v>1.21937482795796</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.812102271025522</v>
+        <v>0.0852085553445706</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15679755030281</v>
+        <v>-1.07525559829065</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0697731691669274</v>
+        <v>1.63083855283155</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.07012493009609</v>
+        <v>0.4260962891321</v>
       </c>
       <c r="P4" t="n">
-        <v>0.335129320131629</v>
+        <v>1.13135764755628</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.8133031019203</v>
+        <v>0.79801703163813</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.547185802856021</v>
+        <v>0.57336180898402</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.68667202011808</v>
+        <v>1.54801932795929</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.911417401973203</v>
+        <v>0.55162981221778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.983625234161184</v>
+        <v>0.615669287790689</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16141111155324</v>
+        <v>1.50839321017645</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.223095210248402</v>
+        <v>1.90746784092299</v>
       </c>
       <c r="X4" t="n">
-        <v>0.121400419146042</v>
+        <v>1.04997669454547</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.47663850293463</v>
+        <v>2.12013058508788</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.108434677665275</v>
+        <v>-1.4508666690228</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.234338932258116</v>
+        <v>-0.330232143397093</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.405499069852869</v>
+        <v>0.94124631127262</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.30326099384041</v>
+        <v>0.899241734906422</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.124012737424273</v>
+        <v>0.229889011265977</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.568457917824201</v>
+        <v>-1.74702849347167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26491583761812</v>
+        <v>-1.26708576855857</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.78851133492241</v>
+        <v>0.0174747928953243</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.991654665458255</v>
+        <v>0.976372643777029</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.513312498144264</v>
+        <v>0.321844211897945</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.671554143366149</v>
+        <v>-0.855191821968963</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0853048902319682</v>
+        <v>-0.572617526622388</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.50692834077114</v>
+        <v>-0.630813182768941</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.791081931138822</v>
+        <v>-0.425863458889048</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.88497087654423</v>
+        <v>0.705285663901528</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.366437261167781</v>
+        <v>0.86235525200306</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.193210715897762</v>
+        <v>-0.904029873049456</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.0683090305600048</v>
+        <v>0.69066621968156</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.25140755712196</v>
+        <v>0.84793192742262</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.446832420662573</v>
+        <v>0.778244726688304</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1.08716078978704</v>
+        <v>1.59905344956274</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.170297477713868</v>
+        <v>0.518980118336574</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.406014067313114</v>
+        <v>-0.0458342429057893</v>
       </c>
       <c r="AW4" t="n">
-        <v>-2.65138523427334</v>
+        <v>0.199544058833437</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.56448614321298</v>
+        <v>1.25402789959291</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1.49061765904033</v>
+        <v>0.137993688989314</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.13531139447252</v>
+        <v>0.883913268115679</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.436814021674785</v>
+        <v>0.44181603428123</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.218464897252679</v>
+        <v>-0.856807356705311</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.47509482425101</v>
+        <v>-0.370940639179046</v>
       </c>
       <c r="BD4" t="n">
-        <v>-2.318939194589</v>
+        <v>-1.4424255040546</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.598019244560973</v>
+        <v>-0.603753321899266</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.5142475031732</v>
+        <v>-0.00453343227493007</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.302763882670332</v>
+        <v>2.01816824414963</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.614508399380379</v>
+        <v>0.687046265267196</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.235118312991024</v>
+        <v>-0.702095189626774</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.216326092543769</v>
+        <v>0.663941532165132</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.286114108739235</v>
+        <v>0.0955497296122858</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.528212785309137</v>
+        <v>0.652878343289579</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.59973196082092</v>
+        <v>-0.000963885317136659</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.13971163348011</v>
+        <v>0.790128001445733</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.412232993726088</v>
+        <v>1.69780150724907</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.596986687706396</v>
+        <v>-0.760094351537884</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.439747144051762</v>
+        <v>-0.093106682066332</v>
       </c>
       <c r="BR4" t="n">
-        <v>-1.23980375569257</v>
+        <v>-1.03637958957259</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.14888118833752</v>
+        <v>-0.639400133471928</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.47735851799969</v>
+        <v>-0.0399483131924028</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.30591045617695</v>
+        <v>-0.265920694797773</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.807135538175598</v>
+        <v>-0.942083084544316</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.733251602602671</v>
+        <v>0.653322066007636</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.0634264575981681</v>
+        <v>-0.286921081164447</v>
       </c>
       <c r="BY4" t="n">
-        <v>-1.49970340382747</v>
+        <v>0.348659732405639</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.323171199971376</v>
+        <v>-0.724719965784086</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.29360959928533</v>
+        <v>-1.88298593272232</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.21508654431522</v>
+        <v>0.862601789281916</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.904876972424052</v>
+        <v>-0.156706154519887</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.925402553851352</v>
+        <v>0.557190064092759</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.10143826357288</v>
+        <v>0.591348632760738</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.0824535530145167</v>
+        <v>0.551339600526879</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.01634866305117</v>
+        <v>-0.540498990232031</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.554332620579709</v>
+        <v>1.61312375236137</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.57541267683086</v>
+        <v>0.247109554594005</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.330629432844155</v>
+        <v>-0.493812006362956</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.284727674294077</v>
+        <v>0.317631588386849</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0862373009429894</v>
+        <v>-0.937801444077428</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.123359975175009</v>
+        <v>0.411241942790909</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.0991590193408266</v>
+        <v>0.774761106374641</v>
       </c>
       <c r="CO4" t="n">
-        <v>-1.29455444787293</v>
+        <v>1.50187105656282</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.687960742540655</v>
+        <v>0.712157461094183</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.936274078351203</v>
+        <v>-1.5893899032207</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.312570263294486</v>
+        <v>0.554065925145372</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.27111288369793</v>
+        <v>-0.371679570397957</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.561602908634514</v>
+        <v>0.682735808463474</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.229585101707383</v>
+        <v>-2.49727639886756</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.748594268539021</v>
+        <v>0.996010330327716</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.878381276475844</v>
+        <v>-0.524437992613047</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.6200542299169</v>
+        <v>1.23730547654463</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.35250672849427</v>
+        <v>-0.872832871159456</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-1.61204109507313</v>
+        <v>-2.45134796678947</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0511567418047165</v>
+        <v>1.14543670677914</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.26940326425817</v>
+        <v>-1.3706056329232</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.527623904359859</v>
+        <v>-0.0071807703284703</v>
       </c>
       <c r="DD4" t="n">
-        <v>-1.38138803855065</v>
+        <v>-1.77185421777621</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.00140553307019</v>
+        <v>-2.14850149398974</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0945023654603443</v>
+        <v>-0.367008240656346</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.281974235996334</v>
+        <v>1.41149105767013</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.165042611447422</v>
+        <v>0.230570770171961</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.33867440899652</v>
+        <v>0.397273797806033</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.226893916084773</v>
+        <v>1.03094587995619</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.106181437565803</v>
+        <v>-0.256377845630879</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.335152656162943</v>
+        <v>-0.222529573425218</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.034233723776716</v>
+        <v>0.726102253303828</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.400156774294832</v>
+        <v>1.39658480927392</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.476641555097759</v>
+        <v>0.388447828473519</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.949680724373652</v>
+        <v>-1.26444855511044</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0357646935603891</v>
+        <v>-0.889828745660145</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.569873033427406</v>
+        <v>0.959462657374943</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0616608203554844</v>
+        <v>-0.588373101284952</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.329831754960601</v>
+        <v>-0.190744225925707</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.42465598047008</v>
+        <v>-0.575669461913658</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.176282259840691</v>
+        <v>0.275531150886698</v>
       </c>
       <c r="DW4" t="n">
-        <v>-1.11376717756238</v>
+        <v>0.10208509021238</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.92315283226248</v>
+        <v>0.647853199980797</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.655436867568849</v>
+        <v>1.23731635116367</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.398207224775013</v>
+        <v>-1.23427660732106</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.36656583110852</v>
+        <v>-1.52057812880028</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.211282199963883</v>
+        <v>1.32802626466996</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.0749312166148988</v>
+        <v>-0.118684537181319</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.124216298049748</v>
+        <v>-1.22115239868577</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.779313793358434</v>
+        <v>-0.683971176403494</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.073624919878992</v>
+        <v>-0.211765053244559</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.0589058025230663</v>
+        <v>0.287178408265665</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.048729630165379</v>
+        <v>-0.360219745631015</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.617914944685887</v>
+        <v>-0.844835199834572</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.9426857766063</v>
+        <v>1.61851170973939</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.442404423334667</v>
+        <v>-0.468972531745566</v>
       </c>
       <c r="EL4" t="n">
-        <v>-1.8712847012944</v>
+        <v>0.120988348175001</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.196146908259958</v>
+        <v>1.93424949446982</v>
       </c>
       <c r="EN4" t="n">
-        <v>-1.60245801827812</v>
+        <v>0.128832600406674</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.310273350808718</v>
+        <v>0.193912799322384</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.534349436097997</v>
+        <v>-0.022298608179423</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.587301193210891</v>
+        <v>-0.144271256663676</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.127784621721541</v>
+        <v>-0.267934827994438</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0797133644923477</v>
+        <v>0.707837159044768</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.02308101755053</v>
+        <v>-0.826751824295296</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.07990726377441</v>
+        <v>-1.43398930086607</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.689754466360458</v>
+        <v>0.174379166601686</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.99973550483397</v>
+        <v>-0.551860816215127</v>
       </c>
       <c r="EX4" t="n">
-        <v>-1.54404594229534</v>
+        <v>1.26575893641792</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.10381908119462</v>
+        <v>-0.0220110847290952</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.405840842196601</v>
+        <v>-0.39546410578629</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.424090302254631</v>
+        <v>0.915580083389705</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.52193016942919</v>
+        <v>-2.50228020960723</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.416597782661397</v>
+        <v>-0.603779114818734</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.781846083747221</v>
+        <v>0.188357414202103</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0876619034274636</v>
+        <v>1.28877299155131</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.261192466872662</v>
+        <v>1.83883798745919</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.018660992012753</v>
+        <v>-0.369552524966294</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.545802011487559</v>
+        <v>0.0347402961150459</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.459748152334952</v>
+        <v>1.09040308966126</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.203471428792841</v>
+        <v>-1.32446729426015</v>
       </c>
       <c r="FK4" t="n">
         <v>1</v>
       </c>
       <c r="FL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" t="n">
         <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>1</v>
       </c>
       <c r="FT4" t="n">
         <v>1</v>
@@ -3090,25 +3126,34 @@
         <v>0</v>
       </c>
       <c r="FV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW4" t="n">
         <v>0</v>
       </c>
-      <c r="FW4" t="n">
-        <v>1</v>
-      </c>
       <c r="FX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" t="n">
         <v>0</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="GC4" t="n">
         <v>0</v>
       </c>
-      <c r="FZ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA4" t="n">
+      <c r="GD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE4" t="n">
         <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/dataset_X_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/dataset_X_wrong_genes_correct_pheno.xlsx
@@ -1469,514 +1469,514 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.898624535301718</v>
+        <v>-0.83523312066395</v>
       </c>
       <c r="B2" t="n">
-        <v>0.077300214119455</v>
+        <v>-0.54314666232781</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.543964003644239</v>
+        <v>-0.0213311349875202</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.14500626175395</v>
+        <v>1.58020000171374</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1962741407631</v>
+        <v>0.30975733464764</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.783729475197846</v>
+        <v>0.343057098640629</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.0267128110128</v>
+        <v>0.0377230081280861</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.987218236008914</v>
+        <v>-1.0151306238387</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.9433832516638</v>
+        <v>0.0449186805913545</v>
       </c>
       <c r="J2" t="n">
-        <v>0.577999938789728</v>
+        <v>-0.634808755229134</v>
       </c>
       <c r="K2" t="n">
-        <v>1.21937482795796</v>
+        <v>-0.57113193212938</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0852085553445706</v>
+        <v>0.263661871719069</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.07525559829065</v>
+        <v>0.988133616462982</v>
       </c>
       <c r="N2" t="n">
-        <v>1.63083855283155</v>
+        <v>0.186170624611948</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4260962891321</v>
+        <v>0.0808844879728246</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13135764755628</v>
+        <v>-0.737642376603206</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.79801703163813</v>
+        <v>0.775762096685325</v>
       </c>
       <c r="R2" t="n">
-        <v>0.57336180898402</v>
+        <v>-0.471045168604847</v>
       </c>
       <c r="S2" t="n">
-        <v>1.54801932795929</v>
+        <v>1.10937698871209</v>
       </c>
       <c r="T2" t="n">
-        <v>0.55162981221778</v>
+        <v>0.929186165232037</v>
       </c>
       <c r="U2" t="n">
-        <v>0.615669287790689</v>
+        <v>2.31420500862769</v>
       </c>
       <c r="V2" t="n">
-        <v>1.50839321017645</v>
+        <v>0.738317319109288</v>
       </c>
       <c r="W2" t="n">
-        <v>1.90746784092299</v>
+        <v>-0.930982514205297</v>
       </c>
       <c r="X2" t="n">
-        <v>1.04997669454547</v>
+        <v>0.229490193371384</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.12013058508788</v>
+        <v>-0.395064939152024</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.4508666690228</v>
+        <v>-0.0552656417656834</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.330232143397093</v>
+        <v>-0.719414918271208</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.94124631127262</v>
+        <v>2.24964201143054</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.899241734906422</v>
+        <v>-0.590310219326013</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.229889011265977</v>
+        <v>0.672283689541309</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.74702849347167</v>
+        <v>-0.788064596432272</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.26708576855857</v>
+        <v>1.12129111038959</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0174747928953243</v>
+        <v>-0.760631108619819</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.976372643777029</v>
+        <v>-0.477251099262646</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.321844211897945</v>
+        <v>1.1333760448449</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.855191821968963</v>
+        <v>-1.20294497901605</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.572617526622388</v>
+        <v>0.538929217120253</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.630813182768941</v>
+        <v>0.18917217572889</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.425863458889048</v>
+        <v>0.46640354575889</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.705285663901528</v>
+        <v>0.392684248366254</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.86235525200306</v>
+        <v>-0.738768817040942</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.904029873049456</v>
+        <v>-0.36478603922648</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.69066621968156</v>
+        <v>0.400812361351321</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.84793192742262</v>
+        <v>0.161662202740555</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.778244726688304</v>
+        <v>1.58399433948566</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.59905344956274</v>
+        <v>0.700941592900339</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.518980118336574</v>
+        <v>-0.0713236994645444</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0458342429057893</v>
+        <v>1.28845369475886</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.199544058833437</v>
+        <v>1.86005237651671</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.25402789959291</v>
+        <v>-0.589104512327543</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.137993688989314</v>
+        <v>0.50116918353185</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.883913268115679</v>
+        <v>-1.64438193046821</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.44181603428123</v>
+        <v>-0.537193692499813</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.856807356705311</v>
+        <v>-1.00017798693463</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.370940639179046</v>
+        <v>-0.813103172843575</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.4424255040546</v>
+        <v>-0.0385596885038115</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.603753321899266</v>
+        <v>-0.196474009485723</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.00453343227493007</v>
+        <v>-0.114404219090959</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.01816824414963</v>
+        <v>1.1005115309284</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.687046265267196</v>
+        <v>1.475928368572</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.702095189626774</v>
+        <v>2.04932194573112</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.663941532165132</v>
+        <v>-1.33772082755971</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0955497296122858</v>
+        <v>0.166259086890105</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.652878343289579</v>
+        <v>0.430574470225823</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.000963885317136659</v>
+        <v>-0.416681946178636</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.790128001445733</v>
+        <v>1.65622088388855</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.69780150724907</v>
+        <v>0.63010228682047</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.760094351537884</v>
+        <v>0.966871049676076</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.093106682066332</v>
+        <v>1.89027330765946</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.03637958957259</v>
+        <v>-1.25616474927739</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.639400133471928</v>
+        <v>-0.36422745852468</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0399483131924028</v>
+        <v>1.57016399896835</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.265920694797773</v>
+        <v>-1.38632664350327</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.942083084544316</v>
+        <v>-0.162812204149024</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.653322066007636</v>
+        <v>-0.493718665197132</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.286921081164447</v>
+        <v>1.81321337602768</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.348659732405639</v>
+        <v>-0.704015571666614</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.724719965784086</v>
+        <v>0.792849534098716</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.88298593272232</v>
+        <v>-0.644699217022145</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.862601789281916</v>
+        <v>0.61386414768966</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.156706154519887</v>
+        <v>-0.671918060428797</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.557190064092759</v>
+        <v>-1.13301405723661</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.591348632760738</v>
+        <v>0.592105387557649</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.551339600526879</v>
+        <v>-0.372301252076902</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.540498990232031</v>
+        <v>0.406338461170617</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.61312375236137</v>
+        <v>0.498943449817152</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.247109554594005</v>
+        <v>0.444159842257045</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.493812006362956</v>
+        <v>-0.570980545726562</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.317631588386849</v>
+        <v>0.228918626381825</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.937801444077428</v>
+        <v>-0.509357591722053</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.411241942790909</v>
+        <v>0.653262225864365</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.774761106374641</v>
+        <v>-0.569630137689136</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.50187105656282</v>
+        <v>0.917900301094691</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.712157461094183</v>
+        <v>0.145185282274904</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.5893899032207</v>
+        <v>0.127943927609288</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.554065925145372</v>
+        <v>-1.37245328128492</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.371679570397957</v>
+        <v>-0.803304713524251</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.682735808463474</v>
+        <v>0.551752993642772</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.49727639886756</v>
+        <v>-0.53143722152501</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.996010330327716</v>
+        <v>-0.654490610839652</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.524437992613047</v>
+        <v>-0.387410796303218</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.23730547654463</v>
+        <v>-0.93206992369706</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.872832871159456</v>
+        <v>1.29473139494852</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-2.45134796678947</v>
+        <v>-0.65887519156761</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.14543670677914</v>
+        <v>-0.656426134959008</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.3706056329232</v>
+        <v>-0.388411351146742</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0071807703284703</v>
+        <v>0.620578898043063</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.77185421777621</v>
+        <v>0.522593556343953</v>
       </c>
       <c r="DE2" t="n">
-        <v>-2.14850149398974</v>
+        <v>-0.941142552713837</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.367008240656346</v>
+        <v>0.269718350698724</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.41149105767013</v>
+        <v>0.0652109537790797</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.230570770171961</v>
+        <v>-0.967437496104129</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.397273797806033</v>
+        <v>0.418303946721813</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.03094587995619</v>
+        <v>0.269672758792474</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.256377845630879</v>
+        <v>-1.17813629130389</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.222529573425218</v>
+        <v>0.0134921912561354</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.726102253303828</v>
+        <v>-0.225781795831188</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.39658480927392</v>
+        <v>-0.221833725586599</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.388447828473519</v>
+        <v>-0.639075600566217</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.26444855511044</v>
+        <v>-0.225520626877846</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.889828745660145</v>
+        <v>-0.793941595616771</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.959462657374943</v>
+        <v>-0.221169402711398</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.588373101284952</v>
+        <v>-0.527930886892491</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.190744225925707</v>
+        <v>0.0192512288169629</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.575669461913658</v>
+        <v>-0.44584466261371</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.275531150886698</v>
+        <v>-2.27588668944186</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.10208509021238</v>
+        <v>-1.26883334888829</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.647853199980797</v>
+        <v>0.216881320184783</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.23731635116367</v>
+        <v>0.748823236637908</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-1.23427660732106</v>
+        <v>0.870256123002271</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.52057812880028</v>
+        <v>0.056557209053733</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.32802626466996</v>
+        <v>0.286214213824306</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.118684537181319</v>
+        <v>-1.34208810616393</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.22115239868577</v>
+        <v>-0.498007662981788</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.683971176403494</v>
+        <v>-0.216000627823387</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.211765053244559</v>
+        <v>-0.149345341349494</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.287178408265665</v>
+        <v>-0.161550074920309</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.360219745631015</v>
+        <v>1.19982140119281</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.844835199834572</v>
+        <v>-1.2063658256401</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.61851170973939</v>
+        <v>-0.633753366553029</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.468972531745566</v>
+        <v>-0.820025293716159</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.120988348175001</v>
+        <v>0.15912892780803</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.93424949446982</v>
+        <v>-0.312798790920497</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.128832600406674</v>
+        <v>-0.627939455383685</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.193912799322384</v>
+        <v>2.6960538552623</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.022298608179423</v>
+        <v>0.892933275436287</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.144271256663676</v>
+        <v>-0.294558587220833</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.267934827994438</v>
+        <v>0.795086723994935</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.707837159044768</v>
+        <v>-0.025184600993619</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.826751824295296</v>
+        <v>0.239839878029278</v>
       </c>
       <c r="EU2" t="n">
-        <v>-1.43398930086607</v>
+        <v>0.0341864400844439</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.174379166601686</v>
+        <v>1.22985054273215</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.551860816215127</v>
+        <v>-0.754353612526569</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.26575893641792</v>
+        <v>0.637453549969275</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0220110847290952</v>
+        <v>-1.90527136865787</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.39546410578629</v>
+        <v>0.230391888503506</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.915580083389705</v>
+        <v>1.63543469756325</v>
       </c>
       <c r="FB2" t="n">
-        <v>-2.50228020960723</v>
+        <v>1.01284654352183</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.603779114818734</v>
+        <v>-1.58163777151017</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.188357414202103</v>
+        <v>1.10496006639583</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.28877299155131</v>
+        <v>-1.78932627108898</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.83883798745919</v>
+        <v>0.577585966775969</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.369552524966294</v>
+        <v>-2.00473367628899</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0347402961150459</v>
+        <v>1.56881479209523</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.09040308966126</v>
+        <v>-1.86152320802654</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-1.32446729426015</v>
+        <v>0.810960809679629</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>1</v>
       </c>
       <c r="FN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
         <v>1</v>
@@ -1985,28 +1985,28 @@
         <v>1</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="GA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>0</v>
@@ -2032,514 +2032,514 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.898624535301718</v>
+        <v>-0.83523312066395</v>
       </c>
       <c r="B3" t="n">
-        <v>0.077300214119455</v>
+        <v>-0.54314666232781</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.543964003644239</v>
+        <v>-0.0213311349875202</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.14500626175395</v>
+        <v>1.58020000171374</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1962741407631</v>
+        <v>0.30975733464764</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.783729475197846</v>
+        <v>0.343057098640629</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.0267128110128</v>
+        <v>0.0377230081280861</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.987218236008914</v>
+        <v>-1.0151306238387</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.9433832516638</v>
+        <v>0.0449186805913545</v>
       </c>
       <c r="J3" t="n">
-        <v>0.577999938789728</v>
+        <v>-0.634808755229134</v>
       </c>
       <c r="K3" t="n">
-        <v>1.21937482795796</v>
+        <v>-0.57113193212938</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0852085553445706</v>
+        <v>0.263661871719069</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.07525559829065</v>
+        <v>0.988133616462982</v>
       </c>
       <c r="N3" t="n">
-        <v>1.63083855283155</v>
+        <v>0.186170624611948</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4260962891321</v>
+        <v>0.0808844879728246</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13135764755628</v>
+        <v>-0.737642376603206</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.79801703163813</v>
+        <v>0.775762096685325</v>
       </c>
       <c r="R3" t="n">
-        <v>0.57336180898402</v>
+        <v>-0.471045168604847</v>
       </c>
       <c r="S3" t="n">
-        <v>1.54801932795929</v>
+        <v>1.10937698871209</v>
       </c>
       <c r="T3" t="n">
-        <v>0.55162981221778</v>
+        <v>0.929186165232037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.615669287790689</v>
+        <v>2.31420500862769</v>
       </c>
       <c r="V3" t="n">
-        <v>1.50839321017645</v>
+        <v>0.738317319109288</v>
       </c>
       <c r="W3" t="n">
-        <v>1.90746784092299</v>
+        <v>-0.930982514205297</v>
       </c>
       <c r="X3" t="n">
-        <v>1.04997669454547</v>
+        <v>0.229490193371384</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.12013058508788</v>
+        <v>-0.395064939152024</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.4508666690228</v>
+        <v>-0.0552656417656834</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.330232143397093</v>
+        <v>-0.719414918271208</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.94124631127262</v>
+        <v>2.24964201143054</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.899241734906422</v>
+        <v>-0.590310219326013</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.229889011265977</v>
+        <v>0.672283689541309</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.74702849347167</v>
+        <v>-0.788064596432272</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.26708576855857</v>
+        <v>1.12129111038959</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0174747928953243</v>
+        <v>-0.760631108619819</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.976372643777029</v>
+        <v>-0.477251099262646</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.321844211897945</v>
+        <v>1.1333760448449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.855191821968963</v>
+        <v>-1.20294497901605</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.572617526622388</v>
+        <v>0.538929217120253</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.630813182768941</v>
+        <v>0.18917217572889</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.425863458889048</v>
+        <v>0.46640354575889</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.705285663901528</v>
+        <v>0.392684248366254</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.86235525200306</v>
+        <v>-0.738768817040942</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.904029873049456</v>
+        <v>-0.36478603922648</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.69066621968156</v>
+        <v>0.400812361351321</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.84793192742262</v>
+        <v>0.161662202740555</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.778244726688304</v>
+        <v>1.58399433948566</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.59905344956274</v>
+        <v>0.700941592900339</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.518980118336574</v>
+        <v>-0.0713236994645444</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.0458342429057893</v>
+        <v>1.28845369475886</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.199544058833437</v>
+        <v>1.86005237651671</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.25402789959291</v>
+        <v>-0.589104512327543</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.137993688989314</v>
+        <v>0.50116918353185</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.883913268115679</v>
+        <v>-1.64438193046821</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.44181603428123</v>
+        <v>-0.537193692499813</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.856807356705311</v>
+        <v>-1.00017798693463</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.370940639179046</v>
+        <v>-0.813103172843575</v>
       </c>
       <c r="BD3" t="n">
-        <v>-1.4424255040546</v>
+        <v>-0.0385596885038115</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.603753321899266</v>
+        <v>-0.196474009485723</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.00453343227493007</v>
+        <v>-0.114404219090959</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.01816824414963</v>
+        <v>1.1005115309284</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.687046265267196</v>
+        <v>1.475928368572</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.702095189626774</v>
+        <v>2.04932194573112</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.663941532165132</v>
+        <v>-1.33772082755971</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0955497296122858</v>
+        <v>0.166259086890105</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.652878343289579</v>
+        <v>0.430574470225823</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.000963885317136659</v>
+        <v>-0.416681946178636</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.790128001445733</v>
+        <v>1.65622088388855</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.69780150724907</v>
+        <v>0.63010228682047</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.760094351537884</v>
+        <v>0.966871049676076</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.093106682066332</v>
+        <v>1.89027330765946</v>
       </c>
       <c r="BR3" t="n">
-        <v>-1.03637958957259</v>
+        <v>-1.25616474927739</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.639400133471928</v>
+        <v>-0.36422745852468</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.0399483131924028</v>
+        <v>1.57016399896835</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.265920694797773</v>
+        <v>-1.38632664350327</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0.942083084544316</v>
+        <v>-0.162812204149024</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.653322066007636</v>
+        <v>-0.493718665197132</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.286921081164447</v>
+        <v>1.81321337602768</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.348659732405639</v>
+        <v>-0.704015571666614</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.724719965784086</v>
+        <v>0.792849534098716</v>
       </c>
       <c r="CA3" t="n">
-        <v>-1.88298593272232</v>
+        <v>-0.644699217022145</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.862601789281916</v>
+        <v>0.61386414768966</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.156706154519887</v>
+        <v>-0.671918060428797</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.557190064092759</v>
+        <v>-1.13301405723661</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.591348632760738</v>
+        <v>0.592105387557649</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.551339600526879</v>
+        <v>-0.372301252076902</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.540498990232031</v>
+        <v>0.406338461170617</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.61312375236137</v>
+        <v>0.498943449817152</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.247109554594005</v>
+        <v>0.444159842257045</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.493812006362956</v>
+        <v>-0.570980545726562</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.317631588386849</v>
+        <v>0.228918626381825</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.937801444077428</v>
+        <v>-0.509357591722053</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.411241942790909</v>
+        <v>0.653262225864365</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.774761106374641</v>
+        <v>-0.569630137689136</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.50187105656282</v>
+        <v>0.917900301094691</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.712157461094183</v>
+        <v>0.145185282274904</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-1.5893899032207</v>
+        <v>0.127943927609288</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.554065925145372</v>
+        <v>-1.37245328128492</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.371679570397957</v>
+        <v>-0.803304713524251</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.682735808463474</v>
+        <v>0.551752993642772</v>
       </c>
       <c r="CU3" t="n">
-        <v>-2.49727639886756</v>
+        <v>-0.53143722152501</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.996010330327716</v>
+        <v>-0.654490610839652</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0.524437992613047</v>
+        <v>-0.387410796303218</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.23730547654463</v>
+        <v>-0.93206992369706</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.872832871159456</v>
+        <v>1.29473139494852</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-2.45134796678947</v>
+        <v>-0.65887519156761</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.14543670677914</v>
+        <v>-0.656426134959008</v>
       </c>
       <c r="DB3" t="n">
-        <v>-1.3706056329232</v>
+        <v>-0.388411351146742</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.0071807703284703</v>
+        <v>0.620578898043063</v>
       </c>
       <c r="DD3" t="n">
-        <v>-1.77185421777621</v>
+        <v>0.522593556343953</v>
       </c>
       <c r="DE3" t="n">
-        <v>-2.14850149398974</v>
+        <v>-0.941142552713837</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0.367008240656346</v>
+        <v>0.269718350698724</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.41149105767013</v>
+        <v>0.0652109537790797</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.230570770171961</v>
+        <v>-0.967437496104129</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.397273797806033</v>
+        <v>0.418303946721813</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.03094587995619</v>
+        <v>0.269672758792474</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.256377845630879</v>
+        <v>-1.17813629130389</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.222529573425218</v>
+        <v>0.0134921912561354</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.726102253303828</v>
+        <v>-0.225781795831188</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.39658480927392</v>
+        <v>-0.221833725586599</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.388447828473519</v>
+        <v>-0.639075600566217</v>
       </c>
       <c r="DP3" t="n">
-        <v>-1.26444855511044</v>
+        <v>-0.225520626877846</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.889828745660145</v>
+        <v>-0.793941595616771</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.959462657374943</v>
+        <v>-0.221169402711398</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.588373101284952</v>
+        <v>-0.527930886892491</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.190744225925707</v>
+        <v>0.0192512288169629</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0.575669461913658</v>
+        <v>-0.44584466261371</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.275531150886698</v>
+        <v>-2.27588668944186</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.10208509021238</v>
+        <v>-1.26883334888829</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.647853199980797</v>
+        <v>0.216881320184783</v>
       </c>
       <c r="DY3" t="n">
-        <v>1.23731635116367</v>
+        <v>0.748823236637908</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-1.23427660732106</v>
+        <v>0.870256123002271</v>
       </c>
       <c r="EA3" t="n">
-        <v>-1.52057812880028</v>
+        <v>0.056557209053733</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.32802626466996</v>
+        <v>0.286214213824306</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.118684537181319</v>
+        <v>-1.34208810616393</v>
       </c>
       <c r="ED3" t="n">
-        <v>-1.22115239868577</v>
+        <v>-0.498007662981788</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.683971176403494</v>
+        <v>-0.216000627823387</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.211765053244559</v>
+        <v>-0.149345341349494</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.287178408265665</v>
+        <v>-0.161550074920309</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.360219745631015</v>
+        <v>1.19982140119281</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.844835199834572</v>
+        <v>-1.2063658256401</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.61851170973939</v>
+        <v>-0.633753366553029</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.468972531745566</v>
+        <v>-0.820025293716159</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.120988348175001</v>
+        <v>0.15912892780803</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.93424949446982</v>
+        <v>-0.312798790920497</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.128832600406674</v>
+        <v>-0.627939455383685</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.193912799322384</v>
+        <v>2.6960538552623</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0.022298608179423</v>
+        <v>0.892933275436287</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.144271256663676</v>
+        <v>-0.294558587220833</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.267934827994438</v>
+        <v>0.795086723994935</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.707837159044768</v>
+        <v>-0.025184600993619</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0.826751824295296</v>
+        <v>0.239839878029278</v>
       </c>
       <c r="EU3" t="n">
-        <v>-1.43398930086607</v>
+        <v>0.0341864400844439</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.174379166601686</v>
+        <v>1.22985054273215</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.551860816215127</v>
+        <v>-0.754353612526569</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.26575893641792</v>
+        <v>0.637453549969275</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0.0220110847290952</v>
+        <v>-1.90527136865787</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.39546410578629</v>
+        <v>0.230391888503506</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.915580083389705</v>
+        <v>1.63543469756325</v>
       </c>
       <c r="FB3" t="n">
-        <v>-2.50228020960723</v>
+        <v>1.01284654352183</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.603779114818734</v>
+        <v>-1.58163777151017</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.188357414202103</v>
+        <v>1.10496006639583</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.28877299155131</v>
+        <v>-1.78932627108898</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.83883798745919</v>
+        <v>0.577585966775969</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.369552524966294</v>
+        <v>-2.00473367628899</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0347402961150459</v>
+        <v>1.56881479209523</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.09040308966126</v>
+        <v>-1.86152320802654</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-1.32446729426015</v>
+        <v>0.810960809679629</v>
       </c>
       <c r="FK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>1</v>
       </c>
       <c r="FN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
         <v>1</v>
@@ -2548,28 +2548,28 @@
         <v>1</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>1</v>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="GA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2595,514 +2595,514 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.898624535301718</v>
+        <v>-0.83523312066395</v>
       </c>
       <c r="B4" t="n">
-        <v>0.077300214119455</v>
+        <v>-0.54314666232781</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.543964003644239</v>
+        <v>-0.0213311349875202</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.14500626175395</v>
+        <v>1.58020000171374</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1962741407631</v>
+        <v>0.30975733464764</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.783729475197846</v>
+        <v>0.343057098640629</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.0267128110128</v>
+        <v>0.0377230081280861</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.987218236008914</v>
+        <v>-1.0151306238387</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.9433832516638</v>
+        <v>0.0449186805913545</v>
       </c>
       <c r="J4" t="n">
-        <v>0.577999938789728</v>
+        <v>-0.634808755229134</v>
       </c>
       <c r="K4" t="n">
-        <v>1.21937482795796</v>
+        <v>-0.57113193212938</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0852085553445706</v>
+        <v>0.263661871719069</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.07525559829065</v>
+        <v>0.988133616462982</v>
       </c>
       <c r="N4" t="n">
-        <v>1.63083855283155</v>
+        <v>0.186170624611948</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4260962891321</v>
+        <v>0.0808844879728246</v>
       </c>
       <c r="P4" t="n">
-        <v>1.13135764755628</v>
+        <v>-0.737642376603206</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.79801703163813</v>
+        <v>0.775762096685325</v>
       </c>
       <c r="R4" t="n">
-        <v>0.57336180898402</v>
+        <v>-0.471045168604847</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54801932795929</v>
+        <v>1.10937698871209</v>
       </c>
       <c r="T4" t="n">
-        <v>0.55162981221778</v>
+        <v>0.929186165232037</v>
       </c>
       <c r="U4" t="n">
-        <v>0.615669287790689</v>
+        <v>2.31420500862769</v>
       </c>
       <c r="V4" t="n">
-        <v>1.50839321017645</v>
+        <v>0.738317319109288</v>
       </c>
       <c r="W4" t="n">
-        <v>1.90746784092299</v>
+        <v>-0.930982514205297</v>
       </c>
       <c r="X4" t="n">
-        <v>1.04997669454547</v>
+        <v>0.229490193371384</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.12013058508788</v>
+        <v>-0.395064939152024</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.4508666690228</v>
+        <v>-0.0552656417656834</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.330232143397093</v>
+        <v>-0.719414918271208</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.94124631127262</v>
+        <v>2.24964201143054</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.899241734906422</v>
+        <v>-0.590310219326013</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.229889011265977</v>
+        <v>0.672283689541309</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.74702849347167</v>
+        <v>-0.788064596432272</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.26708576855857</v>
+        <v>1.12129111038959</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0174747928953243</v>
+        <v>-0.760631108619819</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.976372643777029</v>
+        <v>-0.477251099262646</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.321844211897945</v>
+        <v>1.1333760448449</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.855191821968963</v>
+        <v>-1.20294497901605</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.572617526622388</v>
+        <v>0.538929217120253</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.630813182768941</v>
+        <v>0.18917217572889</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.425863458889048</v>
+        <v>0.46640354575889</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.705285663901528</v>
+        <v>0.392684248366254</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.86235525200306</v>
+        <v>-0.738768817040942</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.904029873049456</v>
+        <v>-0.36478603922648</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.69066621968156</v>
+        <v>0.400812361351321</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.84793192742262</v>
+        <v>0.161662202740555</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.778244726688304</v>
+        <v>1.58399433948566</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.59905344956274</v>
+        <v>0.700941592900339</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.518980118336574</v>
+        <v>-0.0713236994645444</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.0458342429057893</v>
+        <v>1.28845369475886</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.199544058833437</v>
+        <v>1.86005237651671</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.25402789959291</v>
+        <v>-0.589104512327543</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.137993688989314</v>
+        <v>0.50116918353185</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.883913268115679</v>
+        <v>-1.64438193046821</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.44181603428123</v>
+        <v>-0.537193692499813</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.856807356705311</v>
+        <v>-1.00017798693463</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.370940639179046</v>
+        <v>-0.813103172843575</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1.4424255040546</v>
+        <v>-0.0385596885038115</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.603753321899266</v>
+        <v>-0.196474009485723</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.00453343227493007</v>
+        <v>-0.114404219090959</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.01816824414963</v>
+        <v>1.1005115309284</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.687046265267196</v>
+        <v>1.475928368572</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.702095189626774</v>
+        <v>2.04932194573112</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.663941532165132</v>
+        <v>-1.33772082755971</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0955497296122858</v>
+        <v>0.166259086890105</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.652878343289579</v>
+        <v>0.430574470225823</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.000963885317136659</v>
+        <v>-0.416681946178636</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.790128001445733</v>
+        <v>1.65622088388855</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.69780150724907</v>
+        <v>0.63010228682047</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.760094351537884</v>
+        <v>0.966871049676076</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.093106682066332</v>
+        <v>1.89027330765946</v>
       </c>
       <c r="BR4" t="n">
-        <v>-1.03637958957259</v>
+        <v>-1.25616474927739</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.639400133471928</v>
+        <v>-0.36422745852468</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.0399483131924028</v>
+        <v>1.57016399896835</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.265920694797773</v>
+        <v>-1.38632664350327</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.942083084544316</v>
+        <v>-0.162812204149024</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.653322066007636</v>
+        <v>-0.493718665197132</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.286921081164447</v>
+        <v>1.81321337602768</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.348659732405639</v>
+        <v>-0.704015571666614</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.724719965784086</v>
+        <v>0.792849534098716</v>
       </c>
       <c r="CA4" t="n">
-        <v>-1.88298593272232</v>
+        <v>-0.644699217022145</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.862601789281916</v>
+        <v>0.61386414768966</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.156706154519887</v>
+        <v>-0.671918060428797</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.557190064092759</v>
+        <v>-1.13301405723661</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.591348632760738</v>
+        <v>0.592105387557649</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.551339600526879</v>
+        <v>-0.372301252076902</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.540498990232031</v>
+        <v>0.406338461170617</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.61312375236137</v>
+        <v>0.498943449817152</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.247109554594005</v>
+        <v>0.444159842257045</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.493812006362956</v>
+        <v>-0.570980545726562</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.317631588386849</v>
+        <v>0.228918626381825</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.937801444077428</v>
+        <v>-0.509357591722053</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.411241942790909</v>
+        <v>0.653262225864365</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.774761106374641</v>
+        <v>-0.569630137689136</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.50187105656282</v>
+        <v>0.917900301094691</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.712157461094183</v>
+        <v>0.145185282274904</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-1.5893899032207</v>
+        <v>0.127943927609288</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.554065925145372</v>
+        <v>-1.37245328128492</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.371679570397957</v>
+        <v>-0.803304713524251</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.682735808463474</v>
+        <v>0.551752993642772</v>
       </c>
       <c r="CU4" t="n">
-        <v>-2.49727639886756</v>
+        <v>-0.53143722152501</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.996010330327716</v>
+        <v>-0.654490610839652</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.524437992613047</v>
+        <v>-0.387410796303218</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.23730547654463</v>
+        <v>-0.93206992369706</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.872832871159456</v>
+        <v>1.29473139494852</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-2.45134796678947</v>
+        <v>-0.65887519156761</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.14543670677914</v>
+        <v>-0.656426134959008</v>
       </c>
       <c r="DB4" t="n">
-        <v>-1.3706056329232</v>
+        <v>-0.388411351146742</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.0071807703284703</v>
+        <v>0.620578898043063</v>
       </c>
       <c r="DD4" t="n">
-        <v>-1.77185421777621</v>
+        <v>0.522593556343953</v>
       </c>
       <c r="DE4" t="n">
-        <v>-2.14850149398974</v>
+        <v>-0.941142552713837</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.367008240656346</v>
+        <v>0.269718350698724</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.41149105767013</v>
+        <v>0.0652109537790797</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.230570770171961</v>
+        <v>-0.967437496104129</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.397273797806033</v>
+        <v>0.418303946721813</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.03094587995619</v>
+        <v>0.269672758792474</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.256377845630879</v>
+        <v>-1.17813629130389</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.222529573425218</v>
+        <v>0.0134921912561354</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.726102253303828</v>
+        <v>-0.225781795831188</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.39658480927392</v>
+        <v>-0.221833725586599</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.388447828473519</v>
+        <v>-0.639075600566217</v>
       </c>
       <c r="DP4" t="n">
-        <v>-1.26444855511044</v>
+        <v>-0.225520626877846</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.889828745660145</v>
+        <v>-0.793941595616771</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.959462657374943</v>
+        <v>-0.221169402711398</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.588373101284952</v>
+        <v>-0.527930886892491</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.190744225925707</v>
+        <v>0.0192512288169629</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.575669461913658</v>
+        <v>-0.44584466261371</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.275531150886698</v>
+        <v>-2.27588668944186</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.10208509021238</v>
+        <v>-1.26883334888829</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.647853199980797</v>
+        <v>0.216881320184783</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.23731635116367</v>
+        <v>0.748823236637908</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-1.23427660732106</v>
+        <v>0.870256123002271</v>
       </c>
       <c r="EA4" t="n">
-        <v>-1.52057812880028</v>
+        <v>0.056557209053733</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.32802626466996</v>
+        <v>0.286214213824306</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.118684537181319</v>
+        <v>-1.34208810616393</v>
       </c>
       <c r="ED4" t="n">
-        <v>-1.22115239868577</v>
+        <v>-0.498007662981788</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.683971176403494</v>
+        <v>-0.216000627823387</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.211765053244559</v>
+        <v>-0.149345341349494</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.287178408265665</v>
+        <v>-0.161550074920309</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.360219745631015</v>
+        <v>1.19982140119281</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.844835199834572</v>
+        <v>-1.2063658256401</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.61851170973939</v>
+        <v>-0.633753366553029</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.468972531745566</v>
+        <v>-0.820025293716159</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.120988348175001</v>
+        <v>0.15912892780803</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.93424949446982</v>
+        <v>-0.312798790920497</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.128832600406674</v>
+        <v>-0.627939455383685</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.193912799322384</v>
+        <v>2.6960538552623</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.022298608179423</v>
+        <v>0.892933275436287</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.144271256663676</v>
+        <v>-0.294558587220833</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.267934827994438</v>
+        <v>0.795086723994935</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.707837159044768</v>
+        <v>-0.025184600993619</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0.826751824295296</v>
+        <v>0.239839878029278</v>
       </c>
       <c r="EU4" t="n">
-        <v>-1.43398930086607</v>
+        <v>0.0341864400844439</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.174379166601686</v>
+        <v>1.22985054273215</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.551860816215127</v>
+        <v>-0.754353612526569</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.26575893641792</v>
+        <v>0.637453549969275</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.0220110847290952</v>
+        <v>-1.90527136865787</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.39546410578629</v>
+        <v>0.230391888503506</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.915580083389705</v>
+        <v>1.63543469756325</v>
       </c>
       <c r="FB4" t="n">
-        <v>-2.50228020960723</v>
+        <v>1.01284654352183</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.603779114818734</v>
+        <v>-1.58163777151017</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.188357414202103</v>
+        <v>1.10496006639583</v>
       </c>
       <c r="FE4" t="n">
-        <v>1.28877299155131</v>
+        <v>-1.78932627108898</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.83883798745919</v>
+        <v>0.577585966775969</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.369552524966294</v>
+        <v>-2.00473367628899</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0347402961150459</v>
+        <v>1.56881479209523</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.09040308966126</v>
+        <v>-1.86152320802654</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-1.32446729426015</v>
+        <v>0.810960809679629</v>
       </c>
       <c r="FK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>1</v>
       </c>
       <c r="FN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
         <v>1</v>
@@ -3111,28 +3111,28 @@
         <v>1</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU4" t="n">
         <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="GA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB4" t="n">
         <v>0</v>
